--- a/매출현황.xlsx
+++ b/매출현황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\넷폼업무\005. 경리업무\2026년\001.일계표_넷폼_26년\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2E6BD-F53F-43D5-A52B-53A7897770A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C42F52-DE9F-46B8-B244-02BE15D845CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,19 @@
     <definedName name="TotalMonthlyExpenses">SUM(#REF!)</definedName>
     <definedName name="TotalMonthlyIncome">SUM(#REF!)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -4326,7 +4337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5264,33 +5275,168 @@
     <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="33" fillId="17" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="45" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="52" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="17" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="63" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="17" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="35" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="33" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5316,153 +5462,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="33" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="35" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="17" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="33" fillId="17" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="45" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="52" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="17" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="63" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5477,83 +5476,7 @@
     <cellStyle name="표준 125" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="표준 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -5776,6 +5699,40 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5891,7 +5848,7 @@
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="예정14"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="입금_x000a_(B)"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="정산_x000a_지연일_x000a_(A-B)"/>
-    <tableColumn id="34" xr3:uid="{06DBC617-E39F-4D9E-A0D5-9A256559E921}" name="미수금액2" dataDxfId="0" dataCellStyle="쉼표 [0]">
+    <tableColumn id="34" xr3:uid="{06DBC617-E39F-4D9E-A0D5-9A256559E921}" name="미수금액2" dataDxfId="24" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(COUNT(AC5),0,Y5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="최종수금액"/>
@@ -6125,8 +6082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6168,26 +6125,26 @@
     <row r="2" spans="1:24" ht="30" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="331"/>
-      <c r="H2" s="331"/>
-      <c r="I2" s="331"/>
-      <c r="J2" s="331"/>
-      <c r="K2" s="331"/>
-      <c r="L2" s="331"/>
-      <c r="M2" s="331"/>
-      <c r="N2" s="331"/>
-      <c r="O2" s="331"/>
-      <c r="P2" s="331"/>
-      <c r="Q2" s="331"/>
-      <c r="R2" s="331"/>
-      <c r="S2" s="331"/>
-      <c r="T2" s="331"/>
+      <c r="C2" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
+      <c r="L2" s="347"/>
+      <c r="M2" s="347"/>
+      <c r="N2" s="347"/>
+      <c r="O2" s="347"/>
+      <c r="P2" s="347"/>
+      <c r="Q2" s="347"/>
+      <c r="R2" s="347"/>
+      <c r="S2" s="347"/>
+      <c r="T2" s="347"/>
       <c r="U2" s="8"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
@@ -6260,30 +6217,30 @@
     <row r="6" spans="1:24" ht="21.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332" t="s">
+      <c r="D6" s="348"/>
+      <c r="E6" s="348" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332" t="s">
+      <c r="F6" s="348"/>
+      <c r="G6" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="332"/>
+      <c r="H6" s="348"/>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="333" t="s">
+      <c r="K6" s="349" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="333"/>
-      <c r="M6" s="334" t="s">
+      <c r="L6" s="349"/>
+      <c r="M6" s="350" t="s">
         <v>427</v>
       </c>
-      <c r="N6" s="335"/>
+      <c r="N6" s="351"/>
       <c r="O6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6300,35 +6257,35 @@
     <row r="7" spans="1:24" ht="25.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="329">
+      <c r="C7" s="352">
         <v>23000000000</v>
       </c>
-      <c r="D7" s="329"/>
-      <c r="E7" s="329">
+      <c r="D7" s="352"/>
+      <c r="E7" s="352">
         <f>Q13</f>
         <v>604917600</v>
       </c>
-      <c r="F7" s="329"/>
-      <c r="G7" s="329">
+      <c r="F7" s="352"/>
+      <c r="G7" s="352">
         <f>Q17</f>
         <v>42126600</v>
       </c>
-      <c r="H7" s="329"/>
+      <c r="H7" s="352"/>
       <c r="I7" s="20">
         <f>IF(C7&gt;0, G7/C7, 0)</f>
         <v>1.8315913043478261E-3</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="330">
+      <c r="K7" s="353">
         <f ca="1">(SUM(컨설팅!P:P)+SUM(S_N솔루션!P:P)+SUM(특허기술자문료!P:P))</f>
         <v>650956900</v>
       </c>
-      <c r="L7" s="330"/>
-      <c r="M7" s="330">
+      <c r="L7" s="353"/>
+      <c r="M7" s="353">
         <f ca="1">(SUMIF(컨설팅!S:S,"확인요망",컨설팅!H:H)+SUMIF(S_N솔루션!S:S,"확인요망",S_N솔루션!H:H)+SUMIF(특허기술자문료!S:S,"확인요망",특허기술자문료!I:I))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="330"/>
+      <c r="N7" s="353"/>
       <c r="O7" s="21">
         <f>IF(G7&gt;0, (SUM(컨설팅!O:O)+SUM(S_N솔루션!O:O)+SUM(특허기술자문료!O:O))/1.1/G7, 0)</f>
         <v>0.25199280264725848</v>
@@ -8211,17 +8168,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="C2:T2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10770,17 +10727,17 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B2:S25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E87">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>AND($I2&lt;&gt;"선금", $I2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:W25 Y2:AD25 AF2:AK25 B26:AM87">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10933,7 +10890,7 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B2:P3">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13329,22 +13286,22 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="A2:AK2 AK15:AL34 A22:AF23 AH22:AJ23 A24:AJ34">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$J22="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AK34">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL14 A3:AJ21">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13357,7 +13314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BB160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
@@ -13453,24 +13410,24 @@
       <c r="D2" s="177"/>
       <c r="E2" s="175"/>
       <c r="F2" s="175"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="379"/>
-      <c r="J2" s="379"/>
-      <c r="K2" s="378"/>
-      <c r="L2" s="378"/>
-      <c r="M2" s="379"/>
-      <c r="N2" s="379"/>
-      <c r="O2" s="379"/>
-      <c r="P2" s="378"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="181"/>
       <c r="Q2" s="181"/>
       <c r="R2" s="182"/>
       <c r="S2" s="182"/>
       <c r="T2" s="182"/>
       <c r="U2" s="181"/>
       <c r="V2" s="181"/>
-      <c r="W2" s="378"/>
-      <c r="X2" s="378"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
       <c r="Y2" s="181"/>
       <c r="Z2" s="182"/>
       <c r="AA2" s="182"/>
@@ -13493,76 +13450,76 @@
       <c r="AR2" s="181"/>
     </row>
     <row r="3" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A3" s="363" t="s">
+      <c r="A3" s="354" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="371" t="s">
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="355" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="371"/>
-      <c r="I3" s="371"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="371"/>
-      <c r="L3" s="372" t="s">
+      <c r="H3" s="355"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="356" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="372"/>
-      <c r="N3" s="372"/>
-      <c r="O3" s="372"/>
-      <c r="P3" s="372"/>
-      <c r="Q3" s="380" t="s">
+      <c r="M3" s="356"/>
+      <c r="N3" s="356"/>
+      <c r="O3" s="356"/>
+      <c r="P3" s="356"/>
+      <c r="Q3" s="357" t="s">
         <v>169</v>
       </c>
-      <c r="R3" s="380"/>
-      <c r="S3" s="380"/>
-      <c r="T3" s="380"/>
-      <c r="U3" s="380"/>
-      <c r="V3" s="381"/>
-      <c r="W3" s="364" t="s">
+      <c r="R3" s="357"/>
+      <c r="S3" s="357"/>
+      <c r="T3" s="357"/>
+      <c r="U3" s="357"/>
+      <c r="V3" s="333"/>
+      <c r="W3" s="358" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="364"/>
-      <c r="Y3" s="364"/>
-      <c r="Z3" s="364"/>
-      <c r="AA3" s="364"/>
-      <c r="AB3" s="364"/>
-      <c r="AC3" s="364"/>
-      <c r="AD3" s="364"/>
+      <c r="X3" s="358"/>
+      <c r="Y3" s="358"/>
+      <c r="Z3" s="358"/>
+      <c r="AA3" s="358"/>
+      <c r="AB3" s="358"/>
+      <c r="AC3" s="358"/>
+      <c r="AD3" s="358"/>
       <c r="AE3" s="328"/>
-      <c r="AF3" s="382"/>
-      <c r="AG3" s="382"/>
-      <c r="AH3" s="383"/>
+      <c r="AF3" s="334"/>
+      <c r="AG3" s="334"/>
+      <c r="AH3" s="335"/>
       <c r="AI3" s="185"/>
-      <c r="AJ3" s="367" t="s">
+      <c r="AJ3" s="359" t="s">
         <v>170</v>
       </c>
-      <c r="AK3" s="367"/>
-      <c r="AL3" s="367"/>
-      <c r="AM3" s="367"/>
-      <c r="AN3" s="368" t="s">
+      <c r="AK3" s="359"/>
+      <c r="AL3" s="359"/>
+      <c r="AM3" s="359"/>
+      <c r="AN3" s="360" t="s">
         <v>171</v>
       </c>
-      <c r="AO3" s="368"/>
-      <c r="AP3" s="368"/>
-      <c r="AQ3" s="368"/>
-      <c r="AR3" s="369" t="s">
+      <c r="AO3" s="360"/>
+      <c r="AP3" s="360"/>
+      <c r="AQ3" s="360"/>
+      <c r="AR3" s="361" t="s">
         <v>65</v>
       </c>
-      <c r="AW3" s="367" t="s">
+      <c r="AW3" s="359" t="s">
         <v>172</v>
       </c>
-      <c r="AX3" s="367"/>
-      <c r="AY3" s="367"/>
-      <c r="AZ3" s="370" t="s">
+      <c r="AX3" s="359"/>
+      <c r="AY3" s="359"/>
+      <c r="AZ3" s="362" t="s">
         <v>173</v>
       </c>
-      <c r="BA3" s="370"/>
-      <c r="BB3" s="370"/>
+      <c r="BA3" s="362"/>
+      <c r="BB3" s="362"/>
     </row>
     <row r="4" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="A4" s="259" t="s">
@@ -13655,7 +13612,7 @@
       <c r="AD4" s="200" t="s">
         <v>199</v>
       </c>
-      <c r="AE4" s="375" t="s">
+      <c r="AE4" s="330" t="s">
         <v>428</v>
       </c>
       <c r="AF4" s="201" t="s">
@@ -13664,7 +13621,7 @@
       <c r="AG4" s="202" t="s">
         <v>201</v>
       </c>
-      <c r="AH4" s="384" t="s">
+      <c r="AH4" s="336" t="s">
         <v>202</v>
       </c>
       <c r="AI4" s="185"/>
@@ -13692,7 +13649,7 @@
       <c r="AQ4" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="369"/>
+      <c r="AR4" s="361"/>
       <c r="AW4" s="191" t="s">
         <v>203</v>
       </c>
@@ -13713,7 +13670,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A5" s="385">
+      <c r="A5" s="337">
         <v>1</v>
       </c>
       <c r="B5" s="208">
@@ -13801,7 +13758,7 @@
       </c>
       <c r="AC5" s="213"/>
       <c r="AD5" s="221"/>
-      <c r="AE5" s="376">
+      <c r="AE5" s="331">
         <f t="shared" ref="AE5:AE21" si="0">IF(COUNT(AC5),0,Y5)</f>
         <v>41238400</v>
       </c>
@@ -13861,7 +13818,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="385">
+      <c r="A6" s="337">
         <v>2</v>
       </c>
       <c r="B6" s="208">
@@ -13947,7 +13904,7 @@
       </c>
       <c r="AC6" s="213"/>
       <c r="AD6" s="221"/>
-      <c r="AE6" s="376">
+      <c r="AE6" s="331">
         <f t="shared" si="0"/>
         <v>38239400</v>
       </c>
@@ -14008,7 +13965,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="385">
+      <c r="A7" s="337">
         <v>3</v>
       </c>
       <c r="B7" s="208">
@@ -14102,7 +14059,7 @@
       </c>
       <c r="AC7" s="213"/>
       <c r="AD7" s="221"/>
-      <c r="AE7" s="376">
+      <c r="AE7" s="331">
         <f t="shared" si="0"/>
         <v>6000000</v>
       </c>
@@ -14163,7 +14120,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="385">
+      <c r="A8" s="337">
         <v>4</v>
       </c>
       <c r="B8" s="230">
@@ -14251,7 +14208,7 @@
       </c>
       <c r="AC8" s="235"/>
       <c r="AD8" s="241"/>
-      <c r="AE8" s="377">
+      <c r="AE8" s="332">
         <f t="shared" si="0"/>
         <v>14390000</v>
       </c>
@@ -14260,7 +14217,7 @@
         <f>(K8+P8+표1_3[[#This Row],[미수금액2]])-AH8</f>
         <v>14390000</v>
       </c>
-      <c r="AH8" s="386">
+      <c r="AH8" s="338">
         <f>SUM(IF(COUNTBLANK(H8),G8,0),IF(COUNTBLANK(M8),L8,0),IF(COUNTBLANK(AA8),Y8,0))</f>
         <v>0</v>
       </c>
@@ -14310,7 +14267,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="385">
+      <c r="A9" s="337">
         <v>5</v>
       </c>
       <c r="B9" s="208">
@@ -14393,7 +14350,7 @@
       </c>
       <c r="AC9" s="213"/>
       <c r="AD9" s="221"/>
-      <c r="AE9" s="376">
+      <c r="AE9" s="331">
         <f t="shared" si="0"/>
         <v>14598800</v>
       </c>
@@ -14454,7 +14411,7 @@
       </c>
     </row>
     <row r="10" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A10" s="385">
+      <c r="A10" s="337">
         <v>6</v>
       </c>
       <c r="B10" s="208">
@@ -14514,7 +14471,7 @@
       </c>
       <c r="AC10" s="213"/>
       <c r="AD10" s="221"/>
-      <c r="AE10" s="376">
+      <c r="AE10" s="331">
         <f t="shared" si="0"/>
         <v>6450000</v>
       </c>
@@ -14570,7 +14527,7 @@
       </c>
     </row>
     <row r="11" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="385">
+      <c r="A11" s="337">
         <v>7</v>
       </c>
       <c r="B11" s="208">
@@ -14651,7 +14608,7 @@
       </c>
       <c r="AC11" s="213"/>
       <c r="AD11" s="221"/>
-      <c r="AE11" s="376">
+      <c r="AE11" s="331">
         <f t="shared" si="0"/>
         <v>46991600</v>
       </c>
@@ -14708,7 +14665,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A12" s="385">
+      <c r="A12" s="337">
         <v>8</v>
       </c>
       <c r="B12" s="208">
@@ -14794,7 +14751,7 @@
       </c>
       <c r="AC12" s="213"/>
       <c r="AD12" s="221"/>
-      <c r="AE12" s="376">
+      <c r="AE12" s="331">
         <f t="shared" si="0"/>
         <v>114453000</v>
       </c>
@@ -14851,49 +14808,19 @@
       </c>
     </row>
     <row r="13" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A13" s="387"/>
-      <c r="B13" s="388"/>
-      <c r="C13" s="388"/>
-      <c r="D13" s="388"/>
-      <c r="E13" s="388"/>
-      <c r="F13" s="388"/>
-      <c r="G13" s="388"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="388"/>
-      <c r="J13" s="388"/>
-      <c r="K13" s="388"/>
-      <c r="L13" s="388"/>
-      <c r="M13" s="388"/>
-      <c r="N13" s="388"/>
-      <c r="O13" s="388"/>
-      <c r="P13" s="388"/>
-      <c r="Q13" s="388"/>
-      <c r="R13" s="388"/>
-      <c r="S13" s="388"/>
-      <c r="T13" s="388"/>
-      <c r="U13" s="388"/>
-      <c r="V13" s="388"/>
-      <c r="W13" s="388"/>
-      <c r="X13" s="388"/>
-      <c r="Y13" s="388"/>
-      <c r="Z13" s="388"/>
-      <c r="AA13" s="388"/>
-      <c r="AB13" s="388"/>
-      <c r="AC13" s="388"/>
-      <c r="AD13" s="388"/>
-      <c r="AE13" s="389">
+      <c r="A13" s="339"/>
+      <c r="AE13" s="340">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="388"/>
       <c r="AG13" s="215">
         <f>(K13+P13+표1_3[[#This Row],[미수금액2]])-AH13</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="390"/>
+      <c r="AH13" s="341"/>
     </row>
     <row r="14" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="385">
+      <c r="A14" s="337">
         <v>1</v>
       </c>
       <c r="B14" s="208">
@@ -14977,7 +14904,7 @@
       <c r="AB14" s="213"/>
       <c r="AC14" s="213"/>
       <c r="AD14" s="221"/>
-      <c r="AE14" s="376">
+      <c r="AE14" s="331">
         <f t="shared" si="0"/>
         <v>104684000</v>
       </c>
@@ -15028,7 +14955,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="385">
+      <c r="A15" s="337">
         <v>2</v>
       </c>
       <c r="B15" s="208">
@@ -15101,7 +15028,7 @@
       <c r="AB15" s="213"/>
       <c r="AC15" s="213"/>
       <c r="AD15" s="221"/>
-      <c r="AE15" s="376">
+      <c r="AE15" s="331">
         <f t="shared" si="0"/>
         <v>72541200</v>
       </c>
@@ -15152,7 +15079,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="385">
+      <c r="A16" s="337">
         <v>3</v>
       </c>
       <c r="B16" s="208">
@@ -15226,7 +15153,7 @@
       <c r="AB16" s="213"/>
       <c r="AC16" s="213"/>
       <c r="AD16" s="221"/>
-      <c r="AE16" s="376">
+      <c r="AE16" s="331">
         <f t="shared" si="0"/>
         <v>119050400</v>
       </c>
@@ -15279,7 +15206,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="385">
+      <c r="A17" s="337">
         <v>4</v>
       </c>
       <c r="B17" s="230">
@@ -15355,7 +15282,7 @@
       <c r="AB17" s="235"/>
       <c r="AC17" s="235"/>
       <c r="AD17" s="241"/>
-      <c r="AE17" s="377">
+      <c r="AE17" s="332">
         <f t="shared" si="0"/>
         <v>109031200</v>
       </c>
@@ -15406,7 +15333,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="385">
+      <c r="A18" s="337">
         <v>5</v>
       </c>
       <c r="B18" s="208">
@@ -15478,7 +15405,7 @@
       <c r="AB18" s="213"/>
       <c r="AC18" s="213"/>
       <c r="AD18" s="221"/>
-      <c r="AE18" s="376">
+      <c r="AE18" s="331">
         <f t="shared" si="0"/>
         <v>53520000</v>
       </c>
@@ -15521,7 +15448,7 @@
       </c>
     </row>
     <row r="19" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A19" s="385">
+      <c r="A19" s="337">
         <v>6</v>
       </c>
       <c r="B19" s="230">
@@ -15597,7 +15524,7 @@
       <c r="AB19" s="235"/>
       <c r="AC19" s="235"/>
       <c r="AD19" s="241"/>
-      <c r="AE19" s="377">
+      <c r="AE19" s="332">
         <f t="shared" si="0"/>
         <v>23835400</v>
       </c>
@@ -15648,7 +15575,7 @@
       </c>
     </row>
     <row r="20" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A20" s="385">
+      <c r="A20" s="337">
         <v>7</v>
       </c>
       <c r="B20" s="208">
@@ -15724,7 +15651,7 @@
       <c r="AB20" s="213"/>
       <c r="AC20" s="213"/>
       <c r="AD20" s="221"/>
-      <c r="AE20" s="376">
+      <c r="AE20" s="331">
         <f t="shared" si="0"/>
         <v>7378000</v>
       </c>
@@ -15784,7 +15711,7 @@
       <c r="C21" s="276" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="391" t="s">
+      <c r="D21" s="342" t="s">
         <v>245</v>
       </c>
       <c r="E21" s="276">
@@ -15794,7 +15721,7 @@
         <f>E21-AL21</f>
         <v>10336000</v>
       </c>
-      <c r="G21" s="392"/>
+      <c r="G21" s="343"/>
       <c r="H21" s="278"/>
       <c r="I21" s="278"/>
       <c r="J21" s="278"/>
@@ -15810,7 +15737,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="392"/>
+      <c r="Q21" s="343"/>
       <c r="R21" s="278"/>
       <c r="S21" s="278"/>
       <c r="T21" s="278"/>
@@ -15837,8 +15764,8 @@
       <c r="AA21" s="278"/>
       <c r="AB21" s="278"/>
       <c r="AC21" s="278"/>
-      <c r="AD21" s="393"/>
-      <c r="AE21" s="394">
+      <c r="AD21" s="344"/>
+      <c r="AE21" s="345">
         <f t="shared" si="0"/>
         <v>10336000</v>
       </c>
@@ -15847,7 +15774,7 @@
         <f>(K21+P21+표1_3[[#This Row],[미수금액2]])-AH21</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="395">
+      <c r="AH21" s="346">
         <f t="shared" si="6"/>
         <v>10336000</v>
       </c>
@@ -15889,38 +15816,38 @@
       </c>
     </row>
     <row r="24" spans="1:54" s="185" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A24" s="363" t="s">
+      <c r="A24" s="354" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="363"/>
-      <c r="C24" s="363"/>
-      <c r="D24" s="363"/>
-      <c r="E24" s="363"/>
-      <c r="F24" s="364" t="s">
+      <c r="B24" s="354"/>
+      <c r="C24" s="354"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="354"/>
+      <c r="F24" s="358" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="364"/>
-      <c r="H24" s="364"/>
-      <c r="I24" s="364"/>
-      <c r="J24" s="364"/>
-      <c r="K24" s="365" t="s">
+      <c r="G24" s="358"/>
+      <c r="H24" s="358"/>
+      <c r="I24" s="358"/>
+      <c r="J24" s="358"/>
+      <c r="K24" s="363" t="s">
         <v>249</v>
       </c>
-      <c r="L24" s="365"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="365"/>
-      <c r="O24" s="365"/>
-      <c r="P24" s="365" t="s">
+      <c r="L24" s="363"/>
+      <c r="M24" s="363"/>
+      <c r="N24" s="363"/>
+      <c r="O24" s="363"/>
+      <c r="P24" s="363" t="s">
         <v>250</v>
       </c>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="366" t="s">
+      <c r="Q24" s="363"/>
+      <c r="R24" s="364" t="s">
         <v>115</v>
       </c>
-      <c r="S24" s="366"/>
-      <c r="T24" s="366"/>
-      <c r="U24" s="366"/>
-      <c r="V24" s="366"/>
+      <c r="S24" s="364"/>
+      <c r="T24" s="364"/>
+      <c r="U24" s="364"/>
+      <c r="V24" s="364"/>
     </row>
     <row r="25" spans="1:54" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A25" s="259" t="s">
@@ -15974,11 +15901,11 @@
       <c r="Q25" s="262" t="s">
         <v>254</v>
       </c>
-      <c r="R25" s="366"/>
-      <c r="S25" s="366"/>
-      <c r="T25" s="366"/>
-      <c r="U25" s="366"/>
-      <c r="V25" s="366"/>
+      <c r="R25" s="364"/>
+      <c r="S25" s="364"/>
+      <c r="T25" s="364"/>
+      <c r="U25" s="364"/>
+      <c r="V25" s="364"/>
     </row>
     <row r="26" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A26" s="263">
@@ -16026,11 +15953,11 @@
         <v>1360000</v>
       </c>
       <c r="Q26" s="217"/>
-      <c r="R26" s="362"/>
-      <c r="S26" s="362"/>
-      <c r="T26" s="362"/>
-      <c r="U26" s="362"/>
-      <c r="V26" s="362"/>
+      <c r="R26" s="365"/>
+      <c r="S26" s="365"/>
+      <c r="T26" s="365"/>
+      <c r="U26" s="365"/>
+      <c r="V26" s="365"/>
     </row>
     <row r="27" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A27" s="223">
@@ -16079,11 +16006,11 @@
         <v>1132000</v>
       </c>
       <c r="Q27" s="217"/>
-      <c r="R27" s="357"/>
-      <c r="S27" s="357"/>
-      <c r="T27" s="357"/>
-      <c r="U27" s="357"/>
-      <c r="V27" s="357"/>
+      <c r="R27" s="366"/>
+      <c r="S27" s="366"/>
+      <c r="T27" s="366"/>
+      <c r="U27" s="366"/>
+      <c r="V27" s="366"/>
     </row>
     <row r="28" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A28" s="223">
@@ -16132,11 +16059,11 @@
         <v>1076000</v>
       </c>
       <c r="Q28" s="217"/>
-      <c r="R28" s="357"/>
-      <c r="S28" s="357"/>
-      <c r="T28" s="357"/>
-      <c r="U28" s="357"/>
-      <c r="V28" s="357"/>
+      <c r="R28" s="366"/>
+      <c r="S28" s="366"/>
+      <c r="T28" s="366"/>
+      <c r="U28" s="366"/>
+      <c r="V28" s="366"/>
     </row>
     <row r="29" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A29" s="223">
@@ -16183,13 +16110,13 @@
         <v>583000</v>
       </c>
       <c r="Q29" s="217"/>
-      <c r="R29" s="356" t="s">
+      <c r="R29" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="S29" s="356"/>
-      <c r="T29" s="356"/>
-      <c r="U29" s="356"/>
-      <c r="V29" s="356"/>
+      <c r="S29" s="367"/>
+      <c r="T29" s="367"/>
+      <c r="U29" s="367"/>
+      <c r="V29" s="367"/>
     </row>
     <row r="30" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A30" s="223">
@@ -16238,11 +16165,11 @@
         <v>1074000</v>
       </c>
       <c r="Q30" s="217"/>
-      <c r="R30" s="357"/>
-      <c r="S30" s="357"/>
-      <c r="T30" s="357"/>
-      <c r="U30" s="357"/>
-      <c r="V30" s="357"/>
+      <c r="R30" s="366"/>
+      <c r="S30" s="366"/>
+      <c r="T30" s="366"/>
+      <c r="U30" s="366"/>
+      <c r="V30" s="366"/>
     </row>
     <row r="31" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A31" s="223">
@@ -16289,11 +16216,11 @@
         <v>400000</v>
       </c>
       <c r="Q31" s="217"/>
-      <c r="R31" s="357"/>
-      <c r="S31" s="357"/>
-      <c r="T31" s="357"/>
-      <c r="U31" s="357"/>
-      <c r="V31" s="357"/>
+      <c r="R31" s="366"/>
+      <c r="S31" s="366"/>
+      <c r="T31" s="366"/>
+      <c r="U31" s="366"/>
+      <c r="V31" s="366"/>
     </row>
     <row r="32" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A32" s="223">
@@ -16340,13 +16267,13 @@
         <v>837000</v>
       </c>
       <c r="Q32" s="217"/>
-      <c r="R32" s="356" t="s">
+      <c r="R32" s="367" t="s">
         <v>267</v>
       </c>
-      <c r="S32" s="356"/>
-      <c r="T32" s="356"/>
-      <c r="U32" s="356"/>
-      <c r="V32" s="356"/>
+      <c r="S32" s="367"/>
+      <c r="T32" s="367"/>
+      <c r="U32" s="367"/>
+      <c r="V32" s="367"/>
     </row>
     <row r="33" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A33" s="223">
@@ -16393,13 +16320,13 @@
         <v>143500</v>
       </c>
       <c r="Q33" s="217"/>
-      <c r="R33" s="356" t="s">
+      <c r="R33" s="367" t="s">
         <v>269</v>
       </c>
-      <c r="S33" s="356"/>
-      <c r="T33" s="356"/>
-      <c r="U33" s="356"/>
-      <c r="V33" s="356"/>
+      <c r="S33" s="367"/>
+      <c r="T33" s="367"/>
+      <c r="U33" s="367"/>
+      <c r="V33" s="367"/>
     </row>
     <row r="34" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A34" s="223">
@@ -16448,13 +16375,13 @@
         <v>1700000</v>
       </c>
       <c r="Q34" s="217"/>
-      <c r="R34" s="356" t="s">
+      <c r="R34" s="367" t="s">
         <v>272</v>
       </c>
-      <c r="S34" s="356"/>
-      <c r="T34" s="356"/>
-      <c r="U34" s="356"/>
-      <c r="V34" s="356"/>
+      <c r="S34" s="367"/>
+      <c r="T34" s="367"/>
+      <c r="U34" s="367"/>
+      <c r="V34" s="367"/>
     </row>
     <row r="35" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A35" s="223">
@@ -16503,11 +16430,11 @@
         <v>999000</v>
       </c>
       <c r="Q35" s="217"/>
-      <c r="R35" s="357"/>
-      <c r="S35" s="357"/>
-      <c r="T35" s="357"/>
-      <c r="U35" s="357"/>
-      <c r="V35" s="357"/>
+      <c r="R35" s="366"/>
+      <c r="S35" s="366"/>
+      <c r="T35" s="366"/>
+      <c r="U35" s="366"/>
+      <c r="V35" s="366"/>
     </row>
     <row r="36" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A36" s="223">
@@ -16556,11 +16483,11 @@
         <v>3295000</v>
       </c>
       <c r="Q36" s="217"/>
-      <c r="R36" s="357"/>
-      <c r="S36" s="357"/>
-      <c r="T36" s="357"/>
-      <c r="U36" s="357"/>
-      <c r="V36" s="357"/>
+      <c r="R36" s="366"/>
+      <c r="S36" s="366"/>
+      <c r="T36" s="366"/>
+      <c r="U36" s="366"/>
+      <c r="V36" s="366"/>
     </row>
     <row r="37" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A37" s="223">
@@ -16609,13 +16536,13 @@
         <v>794850</v>
       </c>
       <c r="Q37" s="217"/>
-      <c r="R37" s="356" t="s">
+      <c r="R37" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="S37" s="356"/>
-      <c r="T37" s="356"/>
-      <c r="U37" s="356"/>
-      <c r="V37" s="356"/>
+      <c r="S37" s="367"/>
+      <c r="T37" s="367"/>
+      <c r="U37" s="367"/>
+      <c r="V37" s="367"/>
     </row>
     <row r="38" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A38" s="223">
@@ -16666,11 +16593,11 @@
       <c r="Q38" s="217">
         <v>0</v>
       </c>
-      <c r="R38" s="357"/>
-      <c r="S38" s="357"/>
-      <c r="T38" s="357"/>
-      <c r="U38" s="357"/>
-      <c r="V38" s="357"/>
+      <c r="R38" s="366"/>
+      <c r="S38" s="366"/>
+      <c r="T38" s="366"/>
+      <c r="U38" s="366"/>
+      <c r="V38" s="366"/>
     </row>
     <row r="39" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A39" s="223">
@@ -16717,13 +16644,13 @@
         <v>174000</v>
       </c>
       <c r="Q39" s="239"/>
-      <c r="R39" s="356" t="s">
+      <c r="R39" s="367" t="s">
         <v>281</v>
       </c>
-      <c r="S39" s="356"/>
-      <c r="T39" s="356"/>
-      <c r="U39" s="356"/>
-      <c r="V39" s="356"/>
+      <c r="S39" s="367"/>
+      <c r="T39" s="367"/>
+      <c r="U39" s="367"/>
+      <c r="V39" s="367"/>
     </row>
     <row r="40" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A40" s="223">
@@ -16775,11 +16702,11 @@
         <f>IF(COUNT(O40),0,L40)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="357"/>
-      <c r="S40" s="357"/>
-      <c r="T40" s="357"/>
-      <c r="U40" s="357"/>
-      <c r="V40" s="357"/>
+      <c r="R40" s="366"/>
+      <c r="S40" s="366"/>
+      <c r="T40" s="366"/>
+      <c r="U40" s="366"/>
+      <c r="V40" s="366"/>
     </row>
     <row r="41" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A41" s="223">
@@ -16831,11 +16758,11 @@
         <f>IF(COUNT(O41),0,L41)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="357"/>
-      <c r="S41" s="357"/>
-      <c r="T41" s="357"/>
-      <c r="U41" s="357"/>
-      <c r="V41" s="357"/>
+      <c r="R41" s="366"/>
+      <c r="S41" s="366"/>
+      <c r="T41" s="366"/>
+      <c r="U41" s="366"/>
+      <c r="V41" s="366"/>
     </row>
     <row r="42" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A42" s="223">
@@ -16887,13 +16814,13 @@
         <f>IF(COUNT(O42),0,L42)</f>
         <v>0</v>
       </c>
-      <c r="R42" s="356" t="s">
+      <c r="R42" s="367" t="s">
         <v>286</v>
       </c>
-      <c r="S42" s="356"/>
-      <c r="T42" s="356"/>
-      <c r="U42" s="356"/>
-      <c r="V42" s="356"/>
+      <c r="S42" s="367"/>
+      <c r="T42" s="367"/>
+      <c r="U42" s="367"/>
+      <c r="V42" s="367"/>
     </row>
     <row r="43" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A43" s="223">
@@ -16942,13 +16869,13 @@
         <v>481300</v>
       </c>
       <c r="Q43" s="239"/>
-      <c r="R43" s="356" t="s">
+      <c r="R43" s="367" t="s">
         <v>288</v>
       </c>
-      <c r="S43" s="356"/>
-      <c r="T43" s="356"/>
-      <c r="U43" s="356"/>
-      <c r="V43" s="356"/>
+      <c r="S43" s="367"/>
+      <c r="T43" s="367"/>
+      <c r="U43" s="367"/>
+      <c r="V43" s="367"/>
     </row>
     <row r="44" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A44" s="223">
@@ -16997,11 +16924,11 @@
         <v>1789500</v>
       </c>
       <c r="Q44" s="239"/>
-      <c r="R44" s="357"/>
-      <c r="S44" s="357"/>
-      <c r="T44" s="357"/>
-      <c r="U44" s="357"/>
-      <c r="V44" s="357"/>
+      <c r="R44" s="366"/>
+      <c r="S44" s="366"/>
+      <c r="T44" s="366"/>
+      <c r="U44" s="366"/>
+      <c r="V44" s="366"/>
     </row>
     <row r="45" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A45" s="223">
@@ -17050,13 +16977,13 @@
         <v>2425500</v>
       </c>
       <c r="Q45" s="239"/>
-      <c r="R45" s="356" t="s">
+      <c r="R45" s="367" t="s">
         <v>292</v>
       </c>
-      <c r="S45" s="356"/>
-      <c r="T45" s="356"/>
-      <c r="U45" s="356"/>
-      <c r="V45" s="356"/>
+      <c r="S45" s="367"/>
+      <c r="T45" s="367"/>
+      <c r="U45" s="367"/>
+      <c r="V45" s="367"/>
     </row>
     <row r="46" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A46" s="223">
@@ -17108,13 +17035,13 @@
         <f>IF(COUNT(O46),0,L46)</f>
         <v>0</v>
       </c>
-      <c r="R46" s="356" t="s">
+      <c r="R46" s="367" t="s">
         <v>294</v>
       </c>
-      <c r="S46" s="356"/>
-      <c r="T46" s="356"/>
-      <c r="U46" s="356"/>
-      <c r="V46" s="356"/>
+      <c r="S46" s="367"/>
+      <c r="T46" s="367"/>
+      <c r="U46" s="367"/>
+      <c r="V46" s="367"/>
     </row>
     <row r="47" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A47" s="223">
@@ -17163,13 +17090,13 @@
         <f>J47-P47</f>
         <v>1632000</v>
       </c>
-      <c r="R47" s="356" t="s">
+      <c r="R47" s="367" t="s">
         <v>297</v>
       </c>
-      <c r="S47" s="356"/>
-      <c r="T47" s="356"/>
-      <c r="U47" s="356"/>
-      <c r="V47" s="356"/>
+      <c r="S47" s="367"/>
+      <c r="T47" s="367"/>
+      <c r="U47" s="367"/>
+      <c r="V47" s="367"/>
     </row>
     <row r="48" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A48" s="223">
@@ -17218,13 +17145,13 @@
         <f>J48-P48</f>
         <v>5380000</v>
       </c>
-      <c r="R48" s="356" t="s">
+      <c r="R48" s="367" t="s">
         <v>299</v>
       </c>
-      <c r="S48" s="356"/>
-      <c r="T48" s="356"/>
-      <c r="U48" s="356"/>
-      <c r="V48" s="356"/>
+      <c r="S48" s="367"/>
+      <c r="T48" s="367"/>
+      <c r="U48" s="367"/>
+      <c r="V48" s="367"/>
     </row>
     <row r="49" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A49" s="223">
@@ -17273,13 +17200,13 @@
         <f>J49-P49</f>
         <v>765000</v>
       </c>
-      <c r="R49" s="356" t="s">
+      <c r="R49" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="S49" s="356"/>
-      <c r="T49" s="356"/>
-      <c r="U49" s="356"/>
-      <c r="V49" s="356"/>
+      <c r="S49" s="367"/>
+      <c r="T49" s="367"/>
+      <c r="U49" s="367"/>
+      <c r="V49" s="367"/>
     </row>
     <row r="50" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A50" s="223">
@@ -17328,13 +17255,13 @@
         <f>J50-P50</f>
         <v>2738900</v>
       </c>
-      <c r="R50" s="356" t="s">
+      <c r="R50" s="367" t="s">
         <v>303</v>
       </c>
-      <c r="S50" s="356"/>
-      <c r="T50" s="356"/>
-      <c r="U50" s="356"/>
-      <c r="V50" s="356"/>
+      <c r="S50" s="367"/>
+      <c r="T50" s="367"/>
+      <c r="U50" s="367"/>
+      <c r="V50" s="367"/>
     </row>
     <row r="51" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A51" s="223">
@@ -17380,13 +17307,13 @@
         <f>표6[[#This Row],[미수금액]]</f>
         <v>1523400</v>
       </c>
-      <c r="R51" s="356" t="s">
+      <c r="R51" s="367" t="s">
         <v>305</v>
       </c>
-      <c r="S51" s="356"/>
-      <c r="T51" s="356"/>
-      <c r="U51" s="356"/>
-      <c r="V51" s="356"/>
+      <c r="S51" s="367"/>
+      <c r="T51" s="367"/>
+      <c r="U51" s="367"/>
+      <c r="V51" s="367"/>
     </row>
     <row r="52" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A52" s="223">
@@ -17435,13 +17362,13 @@
         <f t="shared" ref="Q52:Q61" si="11">J52-P52</f>
         <v>1648500</v>
       </c>
-      <c r="R52" s="356" t="s">
+      <c r="R52" s="367" t="s">
         <v>307</v>
       </c>
-      <c r="S52" s="356"/>
-      <c r="T52" s="356"/>
-      <c r="U52" s="356"/>
-      <c r="V52" s="356"/>
+      <c r="S52" s="367"/>
+      <c r="T52" s="367"/>
+      <c r="U52" s="367"/>
+      <c r="V52" s="367"/>
     </row>
     <row r="53" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A53" s="223">
@@ -17490,11 +17417,11 @@
         <f t="shared" si="11"/>
         <v>2625000</v>
       </c>
-      <c r="R53" s="357"/>
-      <c r="S53" s="357"/>
-      <c r="T53" s="357"/>
-      <c r="U53" s="357"/>
-      <c r="V53" s="357"/>
+      <c r="R53" s="366"/>
+      <c r="S53" s="366"/>
+      <c r="T53" s="366"/>
+      <c r="U53" s="366"/>
+      <c r="V53" s="366"/>
     </row>
     <row r="54" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A54" s="223">
@@ -17543,11 +17470,11 @@
         <f t="shared" si="11"/>
         <v>125000</v>
       </c>
-      <c r="R54" s="357"/>
-      <c r="S54" s="357"/>
-      <c r="T54" s="357"/>
-      <c r="U54" s="357"/>
-      <c r="V54" s="357"/>
+      <c r="R54" s="366"/>
+      <c r="S54" s="366"/>
+      <c r="T54" s="366"/>
+      <c r="U54" s="366"/>
+      <c r="V54" s="366"/>
     </row>
     <row r="55" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A55" s="223">
@@ -17596,11 +17523,11 @@
         <f t="shared" si="11"/>
         <v>495000</v>
       </c>
-      <c r="R55" s="357"/>
-      <c r="S55" s="357"/>
-      <c r="T55" s="357"/>
-      <c r="U55" s="357"/>
-      <c r="V55" s="357"/>
+      <c r="R55" s="366"/>
+      <c r="S55" s="366"/>
+      <c r="T55" s="366"/>
+      <c r="U55" s="366"/>
+      <c r="V55" s="366"/>
     </row>
     <row r="56" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A56" s="223">
@@ -17649,13 +17576,13 @@
         <f t="shared" si="11"/>
         <v>485000</v>
       </c>
-      <c r="R56" s="356" t="s">
+      <c r="R56" s="367" t="s">
         <v>314</v>
       </c>
-      <c r="S56" s="356"/>
-      <c r="T56" s="356"/>
-      <c r="U56" s="356"/>
-      <c r="V56" s="356"/>
+      <c r="S56" s="367"/>
+      <c r="T56" s="367"/>
+      <c r="U56" s="367"/>
+      <c r="V56" s="367"/>
     </row>
     <row r="57" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A57" s="223">
@@ -17704,13 +17631,13 @@
         <f t="shared" si="11"/>
         <v>662500</v>
       </c>
-      <c r="R57" s="356" t="s">
+      <c r="R57" s="367" t="s">
         <v>317</v>
       </c>
-      <c r="S57" s="356"/>
-      <c r="T57" s="356"/>
-      <c r="U57" s="356"/>
-      <c r="V57" s="356"/>
+      <c r="S57" s="367"/>
+      <c r="T57" s="367"/>
+      <c r="U57" s="367"/>
+      <c r="V57" s="367"/>
     </row>
     <row r="58" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A58" s="223">
@@ -17760,13 +17687,13 @@
         <f t="shared" si="11"/>
         <v>42350</v>
       </c>
-      <c r="R58" s="356" t="s">
+      <c r="R58" s="367" t="s">
         <v>320</v>
       </c>
-      <c r="S58" s="356"/>
-      <c r="T58" s="356"/>
-      <c r="U58" s="356"/>
-      <c r="V58" s="356"/>
+      <c r="S58" s="367"/>
+      <c r="T58" s="367"/>
+      <c r="U58" s="367"/>
+      <c r="V58" s="367"/>
     </row>
     <row r="59" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A59" s="223">
@@ -17815,13 +17742,13 @@
         <f t="shared" si="11"/>
         <v>3537700</v>
       </c>
-      <c r="R59" s="356" t="s">
+      <c r="R59" s="367" t="s">
         <v>323</v>
       </c>
-      <c r="S59" s="356"/>
-      <c r="T59" s="356"/>
-      <c r="U59" s="356"/>
-      <c r="V59" s="356"/>
+      <c r="S59" s="367"/>
+      <c r="T59" s="367"/>
+      <c r="U59" s="367"/>
+      <c r="V59" s="367"/>
     </row>
     <row r="60" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A60" s="223">
@@ -17870,13 +17797,13 @@
         <f t="shared" si="11"/>
         <v>2200000</v>
       </c>
-      <c r="R60" s="356" t="s">
+      <c r="R60" s="367" t="s">
         <v>325</v>
       </c>
-      <c r="S60" s="356"/>
-      <c r="T60" s="356"/>
-      <c r="U60" s="356"/>
-      <c r="V60" s="356"/>
+      <c r="S60" s="367"/>
+      <c r="T60" s="367"/>
+      <c r="U60" s="367"/>
+      <c r="V60" s="367"/>
     </row>
     <row r="61" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A61" s="223">
@@ -17925,13 +17852,13 @@
         <f t="shared" si="11"/>
         <v>605000</v>
       </c>
-      <c r="R61" s="356" t="s">
+      <c r="R61" s="367" t="s">
         <v>327</v>
       </c>
-      <c r="S61" s="356"/>
-      <c r="T61" s="356"/>
-      <c r="U61" s="356"/>
-      <c r="V61" s="356"/>
+      <c r="S61" s="367"/>
+      <c r="T61" s="367"/>
+      <c r="U61" s="367"/>
+      <c r="V61" s="367"/>
     </row>
     <row r="62" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A62" s="223">
@@ -17980,11 +17907,11 @@
         <f>O62-P62</f>
         <v>5397500</v>
       </c>
-      <c r="R62" s="357"/>
-      <c r="S62" s="357"/>
-      <c r="T62" s="357"/>
-      <c r="U62" s="357"/>
-      <c r="V62" s="357"/>
+      <c r="R62" s="366"/>
+      <c r="S62" s="366"/>
+      <c r="T62" s="366"/>
+      <c r="U62" s="366"/>
+      <c r="V62" s="366"/>
     </row>
     <row r="63" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A63" s="274">
@@ -18033,51 +17960,51 @@
         <f>IF(COUNT(O63),0,L63)</f>
         <v>0</v>
       </c>
-      <c r="R63" s="358"/>
-      <c r="S63" s="358"/>
-      <c r="T63" s="358"/>
-      <c r="U63" s="358"/>
-      <c r="V63" s="358"/>
+      <c r="R63" s="368"/>
+      <c r="S63" s="368"/>
+      <c r="T63" s="368"/>
+      <c r="U63" s="368"/>
+      <c r="V63" s="368"/>
     </row>
     <row r="64" spans="1:22" s="186" customFormat="1" ht="24.75" customHeight="1"/>
     <row r="65" spans="1:31" s="186" customFormat="1" ht="24.75" customHeight="1"/>
     <row r="66" spans="1:31" s="185" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A66" s="359" t="s">
+      <c r="A66" s="369" t="s">
         <v>331</v>
       </c>
-      <c r="B66" s="359"/>
-      <c r="C66" s="359"/>
-      <c r="D66" s="359"/>
-      <c r="E66" s="359"/>
-      <c r="F66" s="359"/>
-      <c r="G66" s="360" t="s">
+      <c r="B66" s="369"/>
+      <c r="C66" s="369"/>
+      <c r="D66" s="369"/>
+      <c r="E66" s="369"/>
+      <c r="F66" s="369"/>
+      <c r="G66" s="370" t="s">
         <v>332</v>
       </c>
-      <c r="H66" s="360"/>
-      <c r="I66" s="360"/>
-      <c r="J66" s="360"/>
-      <c r="K66" s="360"/>
-      <c r="L66" s="361" t="s">
+      <c r="H66" s="370"/>
+      <c r="I66" s="370"/>
+      <c r="J66" s="370"/>
+      <c r="K66" s="370"/>
+      <c r="L66" s="371" t="s">
         <v>333</v>
       </c>
-      <c r="M66" s="361"/>
-      <c r="N66" s="361"/>
-      <c r="O66" s="361"/>
-      <c r="P66" s="361"/>
-      <c r="Q66" s="361"/>
-      <c r="R66" s="361"/>
-      <c r="S66" s="361"/>
-      <c r="T66" s="361"/>
-      <c r="U66" s="361"/>
-      <c r="V66" s="361"/>
-      <c r="W66" s="352" t="s">
+      <c r="M66" s="371"/>
+      <c r="N66" s="371"/>
+      <c r="O66" s="371"/>
+      <c r="P66" s="371"/>
+      <c r="Q66" s="371"/>
+      <c r="R66" s="371"/>
+      <c r="S66" s="371"/>
+      <c r="T66" s="371"/>
+      <c r="U66" s="371"/>
+      <c r="V66" s="371"/>
+      <c r="W66" s="372" t="s">
         <v>334</v>
       </c>
-      <c r="X66" s="352"/>
-      <c r="Y66" s="352"/>
-      <c r="Z66" s="352"/>
-      <c r="AA66" s="352"/>
-      <c r="AB66" s="352"/>
+      <c r="X66" s="372"/>
+      <c r="Y66" s="372"/>
+      <c r="Z66" s="372"/>
+      <c r="AA66" s="372"/>
+      <c r="AB66" s="372"/>
       <c r="AC66" s="283"/>
       <c r="AD66" s="283"/>
       <c r="AE66" s="283"/>
@@ -18101,25 +18028,25 @@
       <c r="F67" s="190" t="s">
         <v>336</v>
       </c>
-      <c r="G67" s="353" t="s">
+      <c r="G67" s="373" t="s">
         <v>337</v>
       </c>
-      <c r="H67" s="353"/>
-      <c r="I67" s="354" t="s">
+      <c r="H67" s="373"/>
+      <c r="I67" s="374" t="s">
         <v>338</v>
       </c>
-      <c r="J67" s="354"/>
+      <c r="J67" s="374"/>
       <c r="K67" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="L67" s="355" t="s">
+      <c r="L67" s="375" t="s">
         <v>340</v>
       </c>
-      <c r="M67" s="355"/>
-      <c r="N67" s="355" t="s">
+      <c r="M67" s="375"/>
+      <c r="N67" s="375" t="s">
         <v>341</v>
       </c>
-      <c r="O67" s="355"/>
+      <c r="O67" s="375"/>
       <c r="P67" s="188" t="s">
         <v>342</v>
       </c>
@@ -18165,72 +18092,72 @@
       <c r="AD67" s="287" t="s">
         <v>202</v>
       </c>
-      <c r="AE67" s="373"/>
+      <c r="AE67" s="329"/>
     </row>
     <row r="68" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A68" s="347">
+      <c r="A68" s="377">
         <v>1</v>
       </c>
-      <c r="B68" s="348" t="s">
+      <c r="B68" s="378" t="s">
         <v>349</v>
       </c>
-      <c r="C68" s="349" t="s">
+      <c r="C68" s="379" t="s">
         <v>350</v>
       </c>
-      <c r="D68" s="350" t="s">
+      <c r="D68" s="380" t="s">
         <v>351</v>
       </c>
-      <c r="E68" s="351">
+      <c r="E68" s="381">
         <f>SUM(F68:F69)</f>
         <v>179900000</v>
       </c>
       <c r="F68" s="288">
         <v>108900000</v>
       </c>
-      <c r="G68" s="343">
+      <c r="G68" s="388">
         <v>0.12</v>
       </c>
-      <c r="H68" s="343"/>
-      <c r="I68" s="344">
+      <c r="H68" s="388"/>
+      <c r="I68" s="389">
         <f>F68*G68</f>
         <v>13068000</v>
       </c>
-      <c r="J68" s="344"/>
-      <c r="K68" s="345">
+      <c r="J68" s="389"/>
+      <c r="K68" s="390">
         <f>SUM(I68:J70)</f>
         <v>20168000</v>
       </c>
-      <c r="L68" s="346">
+      <c r="L68" s="391">
         <v>107480000</v>
       </c>
-      <c r="M68" s="346"/>
-      <c r="N68" s="337">
+      <c r="M68" s="391"/>
+      <c r="N68" s="376">
         <v>10000000</v>
       </c>
-      <c r="O68" s="337"/>
-      <c r="P68" s="337">
+      <c r="O68" s="376"/>
+      <c r="P68" s="376">
         <v>94680</v>
       </c>
-      <c r="Q68" s="337">
-        <v>0</v>
-      </c>
-      <c r="R68" s="337">
-        <v>0</v>
-      </c>
-      <c r="S68" s="337">
-        <v>0</v>
-      </c>
-      <c r="T68" s="337">
+      <c r="Q68" s="376">
+        <v>0</v>
+      </c>
+      <c r="R68" s="376">
+        <v>0</v>
+      </c>
+      <c r="S68" s="376">
+        <v>0</v>
+      </c>
+      <c r="T68" s="376">
         <v>200000</v>
       </c>
-      <c r="U68" s="337">
-        <v>0</v>
-      </c>
-      <c r="V68" s="338">
+      <c r="U68" s="376">
+        <v>0</v>
+      </c>
+      <c r="V68" s="383">
         <f>SUM(L68:U69)</f>
         <v>117774680</v>
       </c>
-      <c r="W68" s="339">
+      <c r="W68" s="384">
         <f>E68-K68-V68</f>
         <v>41957320</v>
       </c>
@@ -18254,44 +18181,44 @@
         <f>SUM(IF(COUNTBLANK(X68),V68,0))</f>
         <v>0</v>
       </c>
-      <c r="AE68" s="374"/>
+      <c r="AE68" s="297"/>
     </row>
     <row r="69" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A69" s="347"/>
-      <c r="B69" s="348"/>
-      <c r="C69" s="348"/>
-      <c r="D69" s="350"/>
-      <c r="E69" s="351"/>
-      <c r="F69" s="340">
+      <c r="A69" s="377"/>
+      <c r="B69" s="378"/>
+      <c r="C69" s="378"/>
+      <c r="D69" s="380"/>
+      <c r="E69" s="381"/>
+      <c r="F69" s="385">
         <v>71000000</v>
       </c>
-      <c r="G69" s="341">
+      <c r="G69" s="386">
         <v>0.1</v>
       </c>
-      <c r="H69" s="341"/>
-      <c r="I69" s="342">
+      <c r="H69" s="386"/>
+      <c r="I69" s="387">
         <f>F69*G69</f>
         <v>7100000</v>
       </c>
-      <c r="J69" s="342"/>
-      <c r="K69" s="345"/>
-      <c r="L69" s="346"/>
-      <c r="M69" s="346"/>
-      <c r="N69" s="337"/>
-      <c r="O69" s="337"/>
-      <c r="P69" s="337"/>
-      <c r="Q69" s="337"/>
-      <c r="R69" s="337"/>
-      <c r="S69" s="337"/>
-      <c r="T69" s="337"/>
-      <c r="U69" s="337"/>
-      <c r="V69" s="338"/>
-      <c r="W69" s="339"/>
+      <c r="J69" s="387"/>
+      <c r="K69" s="390"/>
+      <c r="L69" s="391"/>
+      <c r="M69" s="391"/>
+      <c r="N69" s="376"/>
+      <c r="O69" s="376"/>
+      <c r="P69" s="376"/>
+      <c r="Q69" s="376"/>
+      <c r="R69" s="376"/>
+      <c r="S69" s="376"/>
+      <c r="T69" s="376"/>
+      <c r="U69" s="376"/>
+      <c r="V69" s="383"/>
+      <c r="W69" s="384"/>
       <c r="X69" s="218">
         <f>(W68-X68)-X70</f>
         <v>7587196</v>
       </c>
-      <c r="Y69" s="336">
+      <c r="Y69" s="382">
         <v>45657</v>
       </c>
       <c r="Z69" s="213"/>
@@ -18307,36 +18234,36 @@
         <f>SUM(IF(COUNTBLANK(X69),V68,0))</f>
         <v>0</v>
       </c>
-      <c r="AE69" s="374"/>
+      <c r="AE69" s="297"/>
     </row>
     <row r="70" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A70" s="347"/>
-      <c r="B70" s="348"/>
-      <c r="C70" s="348"/>
-      <c r="D70" s="350"/>
-      <c r="E70" s="351"/>
-      <c r="F70" s="340"/>
-      <c r="G70" s="341"/>
-      <c r="H70" s="341"/>
-      <c r="I70" s="342"/>
-      <c r="J70" s="342"/>
-      <c r="K70" s="345"/>
-      <c r="L70" s="346"/>
-      <c r="M70" s="346"/>
-      <c r="N70" s="337"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="337"/>
-      <c r="S70" s="337"/>
-      <c r="T70" s="337"/>
-      <c r="U70" s="337"/>
-      <c r="V70" s="338"/>
-      <c r="W70" s="339"/>
+      <c r="A70" s="377"/>
+      <c r="B70" s="378"/>
+      <c r="C70" s="378"/>
+      <c r="D70" s="380"/>
+      <c r="E70" s="381"/>
+      <c r="F70" s="385"/>
+      <c r="G70" s="386"/>
+      <c r="H70" s="386"/>
+      <c r="I70" s="387"/>
+      <c r="J70" s="387"/>
+      <c r="K70" s="390"/>
+      <c r="L70" s="391"/>
+      <c r="M70" s="391"/>
+      <c r="N70" s="376"/>
+      <c r="O70" s="376"/>
+      <c r="P70" s="376"/>
+      <c r="Q70" s="376"/>
+      <c r="R70" s="376"/>
+      <c r="S70" s="376"/>
+      <c r="T70" s="376"/>
+      <c r="U70" s="376"/>
+      <c r="V70" s="383"/>
+      <c r="W70" s="384"/>
       <c r="X70" s="292">
         <v>5000000</v>
       </c>
-      <c r="Y70" s="336"/>
+      <c r="Y70" s="382"/>
       <c r="Z70" s="278"/>
       <c r="AA70" s="278"/>
       <c r="AB70" s="292">
@@ -18351,7 +18278,7 @@
         <f>SUM(IF(COUNTBLANK(X70),V70,0))</f>
         <v>0</v>
       </c>
-      <c r="AE70" s="374"/>
+      <c r="AE70" s="297"/>
     </row>
     <row r="71" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="B71" s="295"/>
@@ -21227,73 +21154,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:V25"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="R32:V32"/>
-    <mergeCell ref="R33:V33"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="R36:V36"/>
-    <mergeCell ref="R37:V37"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="R49:V49"/>
-    <mergeCell ref="R50:V50"/>
-    <mergeCell ref="R51:V51"/>
-    <mergeCell ref="R52:V52"/>
-    <mergeCell ref="R53:V53"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="R55:V55"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="R57:V57"/>
-    <mergeCell ref="R58:V58"/>
-    <mergeCell ref="R59:V59"/>
-    <mergeCell ref="R60:V60"/>
-    <mergeCell ref="R61:V61"/>
-    <mergeCell ref="R62:V62"/>
-    <mergeCell ref="R63:V63"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="L66:V66"/>
-    <mergeCell ref="W66:AB66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
     <mergeCell ref="Y69:Y70"/>
     <mergeCell ref="U68:U70"/>
     <mergeCell ref="V68:V70"/>
@@ -21310,79 +21170,146 @@
     <mergeCell ref="I68:J68"/>
     <mergeCell ref="K68:K70"/>
     <mergeCell ref="L68:M70"/>
+    <mergeCell ref="N68:O70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="W66:AB66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="R61:V61"/>
+    <mergeCell ref="R62:V62"/>
+    <mergeCell ref="R63:V63"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="L66:V66"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="R58:V58"/>
+    <mergeCell ref="R59:V59"/>
+    <mergeCell ref="R60:V60"/>
+    <mergeCell ref="R51:V51"/>
+    <mergeCell ref="R52:V52"/>
+    <mergeCell ref="R53:V53"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="R55:V55"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="R49:V49"/>
+    <mergeCell ref="R50:V50"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="R36:V36"/>
+    <mergeCell ref="R37:V37"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="R33:V33"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:V25"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="W3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B26:D46">
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>$J26&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$O26&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:D63">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$J63&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$O63&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:F68 F69">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>$AC68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H160">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J28 O26:O28">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29 O29">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J62 O30:O62">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63 O63">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P62">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:Q62">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q63">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB68:AE71">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/매출현황.xlsx
+++ b/매출현황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\넷폼업무\005. 경리업무\2026년\001.일계표_넷폼_26년\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C42F52-DE9F-46B8-B244-02BE15D845CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2E6BD-F53F-43D5-A52B-53A7897770A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,8 @@
     <definedName name="TotalMonthlyExpenses">SUM(#REF!)</definedName>
     <definedName name="TotalMonthlyIncome">SUM(#REF!)</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -4337,7 +4326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5275,8 +5264,143 @@
     <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="35" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="17" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="33" fillId="17" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5287,6 +5411,15 @@
     <xf numFmtId="41" fontId="33" fillId="0" borderId="52" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5308,6 +5441,9 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5327,141 +5463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="17" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="35" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5476,7 +5477,83 @@
     <cellStyle name="표준 125" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="표준 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5699,40 +5776,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5848,7 +5891,7 @@
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="예정14"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="입금_x000a_(B)"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="정산_x000a_지연일_x000a_(A-B)"/>
-    <tableColumn id="34" xr3:uid="{06DBC617-E39F-4D9E-A0D5-9A256559E921}" name="미수금액2" dataDxfId="24" dataCellStyle="쉼표 [0]">
+    <tableColumn id="34" xr3:uid="{06DBC617-E39F-4D9E-A0D5-9A256559E921}" name="미수금액2" dataDxfId="0" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(COUNT(AC5),0,Y5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="최종수금액"/>
@@ -6082,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6125,26 +6168,26 @@
     <row r="2" spans="1:24" ht="30" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="347" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="347"/>
-      <c r="N2" s="347"/>
-      <c r="O2" s="347"/>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
-      <c r="R2" s="347"/>
-      <c r="S2" s="347"/>
-      <c r="T2" s="347"/>
+      <c r="C2" s="331" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="331"/>
+      <c r="E2" s="331"/>
+      <c r="F2" s="331"/>
+      <c r="G2" s="331"/>
+      <c r="H2" s="331"/>
+      <c r="I2" s="331"/>
+      <c r="J2" s="331"/>
+      <c r="K2" s="331"/>
+      <c r="L2" s="331"/>
+      <c r="M2" s="331"/>
+      <c r="N2" s="331"/>
+      <c r="O2" s="331"/>
+      <c r="P2" s="331"/>
+      <c r="Q2" s="331"/>
+      <c r="R2" s="331"/>
+      <c r="S2" s="331"/>
+      <c r="T2" s="331"/>
       <c r="U2" s="8"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
@@ -6217,30 +6260,30 @@
     <row r="6" spans="1:24" ht="21.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="348" t="s">
+      <c r="C6" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="348"/>
-      <c r="E6" s="348" t="s">
+      <c r="D6" s="332"/>
+      <c r="E6" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="348"/>
-      <c r="G6" s="348" t="s">
+      <c r="F6" s="332"/>
+      <c r="G6" s="332" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="348"/>
+      <c r="H6" s="332"/>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="349" t="s">
+      <c r="K6" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="349"/>
-      <c r="M6" s="350" t="s">
+      <c r="L6" s="333"/>
+      <c r="M6" s="334" t="s">
         <v>427</v>
       </c>
-      <c r="N6" s="351"/>
+      <c r="N6" s="335"/>
       <c r="O6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6257,35 +6300,35 @@
     <row r="7" spans="1:24" ht="25.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="352">
+      <c r="C7" s="329">
         <v>23000000000</v>
       </c>
-      <c r="D7" s="352"/>
-      <c r="E7" s="352">
+      <c r="D7" s="329"/>
+      <c r="E7" s="329">
         <f>Q13</f>
         <v>604917600</v>
       </c>
-      <c r="F7" s="352"/>
-      <c r="G7" s="352">
+      <c r="F7" s="329"/>
+      <c r="G7" s="329">
         <f>Q17</f>
         <v>42126600</v>
       </c>
-      <c r="H7" s="352"/>
+      <c r="H7" s="329"/>
       <c r="I7" s="20">
         <f>IF(C7&gt;0, G7/C7, 0)</f>
         <v>1.8315913043478261E-3</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="353">
+      <c r="K7" s="330">
         <f ca="1">(SUM(컨설팅!P:P)+SUM(S_N솔루션!P:P)+SUM(특허기술자문료!P:P))</f>
         <v>650956900</v>
       </c>
-      <c r="L7" s="353"/>
-      <c r="M7" s="353">
+      <c r="L7" s="330"/>
+      <c r="M7" s="330">
         <f ca="1">(SUMIF(컨설팅!S:S,"확인요망",컨설팅!H:H)+SUMIF(S_N솔루션!S:S,"확인요망",S_N솔루션!H:H)+SUMIF(특허기술자문료!S:S,"확인요망",특허기술자문료!I:I))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="353"/>
+      <c r="N7" s="330"/>
       <c r="O7" s="21">
         <f>IF(G7&gt;0, (SUM(컨설팅!O:O)+SUM(S_N솔루션!O:O)+SUM(특허기술자문료!O:O))/1.1/G7, 0)</f>
         <v>0.25199280264725848</v>
@@ -8168,17 +8211,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="C2:T2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10727,17 +10770,17 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B2:S25">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E87">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>AND($I2&lt;&gt;"선금", $I2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:W25 Y2:AD25 AF2:AK25 B26:AM87">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10890,7 +10933,7 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B2:P3">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13286,22 +13329,22 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="A2:AK2 AK15:AL34 A22:AF23 AH22:AJ23 A24:AJ34">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$J22="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AK34">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL14 A3:AJ21">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13314,7 +13357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BB160"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
@@ -13410,24 +13453,24 @@
       <c r="D2" s="177"/>
       <c r="E2" s="175"/>
       <c r="F2" s="175"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="181"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="379"/>
+      <c r="K2" s="378"/>
+      <c r="L2" s="378"/>
+      <c r="M2" s="379"/>
+      <c r="N2" s="379"/>
+      <c r="O2" s="379"/>
+      <c r="P2" s="378"/>
       <c r="Q2" s="181"/>
       <c r="R2" s="182"/>
       <c r="S2" s="182"/>
       <c r="T2" s="182"/>
       <c r="U2" s="181"/>
       <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
+      <c r="W2" s="378"/>
+      <c r="X2" s="378"/>
       <c r="Y2" s="181"/>
       <c r="Z2" s="182"/>
       <c r="AA2" s="182"/>
@@ -13450,76 +13493,76 @@
       <c r="AR2" s="181"/>
     </row>
     <row r="3" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="363" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="355" t="s">
+      <c r="B3" s="363"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="371" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="355"/>
-      <c r="I3" s="355"/>
-      <c r="J3" s="355"/>
-      <c r="K3" s="355"/>
-      <c r="L3" s="356" t="s">
+      <c r="H3" s="371"/>
+      <c r="I3" s="371"/>
+      <c r="J3" s="371"/>
+      <c r="K3" s="371"/>
+      <c r="L3" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="356"/>
-      <c r="N3" s="356"/>
-      <c r="O3" s="356"/>
-      <c r="P3" s="356"/>
-      <c r="Q3" s="357" t="s">
+      <c r="M3" s="372"/>
+      <c r="N3" s="372"/>
+      <c r="O3" s="372"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="380" t="s">
         <v>169</v>
       </c>
-      <c r="R3" s="357"/>
-      <c r="S3" s="357"/>
-      <c r="T3" s="357"/>
-      <c r="U3" s="357"/>
-      <c r="V3" s="333"/>
-      <c r="W3" s="358" t="s">
+      <c r="R3" s="380"/>
+      <c r="S3" s="380"/>
+      <c r="T3" s="380"/>
+      <c r="U3" s="380"/>
+      <c r="V3" s="381"/>
+      <c r="W3" s="364" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="358"/>
-      <c r="Y3" s="358"/>
-      <c r="Z3" s="358"/>
-      <c r="AA3" s="358"/>
-      <c r="AB3" s="358"/>
-      <c r="AC3" s="358"/>
-      <c r="AD3" s="358"/>
+      <c r="X3" s="364"/>
+      <c r="Y3" s="364"/>
+      <c r="Z3" s="364"/>
+      <c r="AA3" s="364"/>
+      <c r="AB3" s="364"/>
+      <c r="AC3" s="364"/>
+      <c r="AD3" s="364"/>
       <c r="AE3" s="328"/>
-      <c r="AF3" s="334"/>
-      <c r="AG3" s="334"/>
-      <c r="AH3" s="335"/>
+      <c r="AF3" s="382"/>
+      <c r="AG3" s="382"/>
+      <c r="AH3" s="383"/>
       <c r="AI3" s="185"/>
-      <c r="AJ3" s="359" t="s">
+      <c r="AJ3" s="367" t="s">
         <v>170</v>
       </c>
-      <c r="AK3" s="359"/>
-      <c r="AL3" s="359"/>
-      <c r="AM3" s="359"/>
-      <c r="AN3" s="360" t="s">
+      <c r="AK3" s="367"/>
+      <c r="AL3" s="367"/>
+      <c r="AM3" s="367"/>
+      <c r="AN3" s="368" t="s">
         <v>171</v>
       </c>
-      <c r="AO3" s="360"/>
-      <c r="AP3" s="360"/>
-      <c r="AQ3" s="360"/>
-      <c r="AR3" s="361" t="s">
+      <c r="AO3" s="368"/>
+      <c r="AP3" s="368"/>
+      <c r="AQ3" s="368"/>
+      <c r="AR3" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="AW3" s="359" t="s">
+      <c r="AW3" s="367" t="s">
         <v>172</v>
       </c>
-      <c r="AX3" s="359"/>
-      <c r="AY3" s="359"/>
-      <c r="AZ3" s="362" t="s">
+      <c r="AX3" s="367"/>
+      <c r="AY3" s="367"/>
+      <c r="AZ3" s="370" t="s">
         <v>173</v>
       </c>
-      <c r="BA3" s="362"/>
-      <c r="BB3" s="362"/>
+      <c r="BA3" s="370"/>
+      <c r="BB3" s="370"/>
     </row>
     <row r="4" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="A4" s="259" t="s">
@@ -13612,7 +13655,7 @@
       <c r="AD4" s="200" t="s">
         <v>199</v>
       </c>
-      <c r="AE4" s="330" t="s">
+      <c r="AE4" s="375" t="s">
         <v>428</v>
       </c>
       <c r="AF4" s="201" t="s">
@@ -13621,7 +13664,7 @@
       <c r="AG4" s="202" t="s">
         <v>201</v>
       </c>
-      <c r="AH4" s="336" t="s">
+      <c r="AH4" s="384" t="s">
         <v>202</v>
       </c>
       <c r="AI4" s="185"/>
@@ -13649,7 +13692,7 @@
       <c r="AQ4" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="361"/>
+      <c r="AR4" s="369"/>
       <c r="AW4" s="191" t="s">
         <v>203</v>
       </c>
@@ -13670,7 +13713,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A5" s="337">
+      <c r="A5" s="385">
         <v>1</v>
       </c>
       <c r="B5" s="208">
@@ -13758,7 +13801,7 @@
       </c>
       <c r="AC5" s="213"/>
       <c r="AD5" s="221"/>
-      <c r="AE5" s="331">
+      <c r="AE5" s="376">
         <f t="shared" ref="AE5:AE21" si="0">IF(COUNT(AC5),0,Y5)</f>
         <v>41238400</v>
       </c>
@@ -13818,7 +13861,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="337">
+      <c r="A6" s="385">
         <v>2</v>
       </c>
       <c r="B6" s="208">
@@ -13904,7 +13947,7 @@
       </c>
       <c r="AC6" s="213"/>
       <c r="AD6" s="221"/>
-      <c r="AE6" s="331">
+      <c r="AE6" s="376">
         <f t="shared" si="0"/>
         <v>38239400</v>
       </c>
@@ -13965,7 +14008,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="337">
+      <c r="A7" s="385">
         <v>3</v>
       </c>
       <c r="B7" s="208">
@@ -14059,7 +14102,7 @@
       </c>
       <c r="AC7" s="213"/>
       <c r="AD7" s="221"/>
-      <c r="AE7" s="331">
+      <c r="AE7" s="376">
         <f t="shared" si="0"/>
         <v>6000000</v>
       </c>
@@ -14120,7 +14163,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="337">
+      <c r="A8" s="385">
         <v>4</v>
       </c>
       <c r="B8" s="230">
@@ -14208,7 +14251,7 @@
       </c>
       <c r="AC8" s="235"/>
       <c r="AD8" s="241"/>
-      <c r="AE8" s="332">
+      <c r="AE8" s="377">
         <f t="shared" si="0"/>
         <v>14390000</v>
       </c>
@@ -14217,7 +14260,7 @@
         <f>(K8+P8+표1_3[[#This Row],[미수금액2]])-AH8</f>
         <v>14390000</v>
       </c>
-      <c r="AH8" s="338">
+      <c r="AH8" s="386">
         <f>SUM(IF(COUNTBLANK(H8),G8,0),IF(COUNTBLANK(M8),L8,0),IF(COUNTBLANK(AA8),Y8,0))</f>
         <v>0</v>
       </c>
@@ -14267,7 +14310,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="337">
+      <c r="A9" s="385">
         <v>5</v>
       </c>
       <c r="B9" s="208">
@@ -14350,7 +14393,7 @@
       </c>
       <c r="AC9" s="213"/>
       <c r="AD9" s="221"/>
-      <c r="AE9" s="331">
+      <c r="AE9" s="376">
         <f t="shared" si="0"/>
         <v>14598800</v>
       </c>
@@ -14411,7 +14454,7 @@
       </c>
     </row>
     <row r="10" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A10" s="337">
+      <c r="A10" s="385">
         <v>6</v>
       </c>
       <c r="B10" s="208">
@@ -14471,7 +14514,7 @@
       </c>
       <c r="AC10" s="213"/>
       <c r="AD10" s="221"/>
-      <c r="AE10" s="331">
+      <c r="AE10" s="376">
         <f t="shared" si="0"/>
         <v>6450000</v>
       </c>
@@ -14527,7 +14570,7 @@
       </c>
     </row>
     <row r="11" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="337">
+      <c r="A11" s="385">
         <v>7</v>
       </c>
       <c r="B11" s="208">
@@ -14608,7 +14651,7 @@
       </c>
       <c r="AC11" s="213"/>
       <c r="AD11" s="221"/>
-      <c r="AE11" s="331">
+      <c r="AE11" s="376">
         <f t="shared" si="0"/>
         <v>46991600</v>
       </c>
@@ -14665,7 +14708,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A12" s="337">
+      <c r="A12" s="385">
         <v>8</v>
       </c>
       <c r="B12" s="208">
@@ -14751,7 +14794,7 @@
       </c>
       <c r="AC12" s="213"/>
       <c r="AD12" s="221"/>
-      <c r="AE12" s="331">
+      <c r="AE12" s="376">
         <f t="shared" si="0"/>
         <v>114453000</v>
       </c>
@@ -14808,19 +14851,49 @@
       </c>
     </row>
     <row r="13" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A13" s="339"/>
-      <c r="AE13" s="340">
+      <c r="A13" s="387"/>
+      <c r="B13" s="388"/>
+      <c r="C13" s="388"/>
+      <c r="D13" s="388"/>
+      <c r="E13" s="388"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="388"/>
+      <c r="H13" s="388"/>
+      <c r="I13" s="388"/>
+      <c r="J13" s="388"/>
+      <c r="K13" s="388"/>
+      <c r="L13" s="388"/>
+      <c r="M13" s="388"/>
+      <c r="N13" s="388"/>
+      <c r="O13" s="388"/>
+      <c r="P13" s="388"/>
+      <c r="Q13" s="388"/>
+      <c r="R13" s="388"/>
+      <c r="S13" s="388"/>
+      <c r="T13" s="388"/>
+      <c r="U13" s="388"/>
+      <c r="V13" s="388"/>
+      <c r="W13" s="388"/>
+      <c r="X13" s="388"/>
+      <c r="Y13" s="388"/>
+      <c r="Z13" s="388"/>
+      <c r="AA13" s="388"/>
+      <c r="AB13" s="388"/>
+      <c r="AC13" s="388"/>
+      <c r="AD13" s="388"/>
+      <c r="AE13" s="389">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="388"/>
       <c r="AG13" s="215">
         <f>(K13+P13+표1_3[[#This Row],[미수금액2]])-AH13</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="341"/>
+      <c r="AH13" s="390"/>
     </row>
     <row r="14" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="337">
+      <c r="A14" s="385">
         <v>1</v>
       </c>
       <c r="B14" s="208">
@@ -14904,7 +14977,7 @@
       <c r="AB14" s="213"/>
       <c r="AC14" s="213"/>
       <c r="AD14" s="221"/>
-      <c r="AE14" s="331">
+      <c r="AE14" s="376">
         <f t="shared" si="0"/>
         <v>104684000</v>
       </c>
@@ -14955,7 +15028,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="337">
+      <c r="A15" s="385">
         <v>2</v>
       </c>
       <c r="B15" s="208">
@@ -15028,7 +15101,7 @@
       <c r="AB15" s="213"/>
       <c r="AC15" s="213"/>
       <c r="AD15" s="221"/>
-      <c r="AE15" s="331">
+      <c r="AE15" s="376">
         <f t="shared" si="0"/>
         <v>72541200</v>
       </c>
@@ -15079,7 +15152,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="337">
+      <c r="A16" s="385">
         <v>3</v>
       </c>
       <c r="B16" s="208">
@@ -15153,7 +15226,7 @@
       <c r="AB16" s="213"/>
       <c r="AC16" s="213"/>
       <c r="AD16" s="221"/>
-      <c r="AE16" s="331">
+      <c r="AE16" s="376">
         <f t="shared" si="0"/>
         <v>119050400</v>
       </c>
@@ -15206,7 +15279,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="337">
+      <c r="A17" s="385">
         <v>4</v>
       </c>
       <c r="B17" s="230">
@@ -15282,7 +15355,7 @@
       <c r="AB17" s="235"/>
       <c r="AC17" s="235"/>
       <c r="AD17" s="241"/>
-      <c r="AE17" s="332">
+      <c r="AE17" s="377">
         <f t="shared" si="0"/>
         <v>109031200</v>
       </c>
@@ -15333,7 +15406,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="337">
+      <c r="A18" s="385">
         <v>5</v>
       </c>
       <c r="B18" s="208">
@@ -15405,7 +15478,7 @@
       <c r="AB18" s="213"/>
       <c r="AC18" s="213"/>
       <c r="AD18" s="221"/>
-      <c r="AE18" s="331">
+      <c r="AE18" s="376">
         <f t="shared" si="0"/>
         <v>53520000</v>
       </c>
@@ -15448,7 +15521,7 @@
       </c>
     </row>
     <row r="19" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A19" s="337">
+      <c r="A19" s="385">
         <v>6</v>
       </c>
       <c r="B19" s="230">
@@ -15524,7 +15597,7 @@
       <c r="AB19" s="235"/>
       <c r="AC19" s="235"/>
       <c r="AD19" s="241"/>
-      <c r="AE19" s="332">
+      <c r="AE19" s="377">
         <f t="shared" si="0"/>
         <v>23835400</v>
       </c>
@@ -15575,7 +15648,7 @@
       </c>
     </row>
     <row r="20" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A20" s="337">
+      <c r="A20" s="385">
         <v>7</v>
       </c>
       <c r="B20" s="208">
@@ -15651,7 +15724,7 @@
       <c r="AB20" s="213"/>
       <c r="AC20" s="213"/>
       <c r="AD20" s="221"/>
-      <c r="AE20" s="331">
+      <c r="AE20" s="376">
         <f t="shared" si="0"/>
         <v>7378000</v>
       </c>
@@ -15711,7 +15784,7 @@
       <c r="C21" s="276" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="342" t="s">
+      <c r="D21" s="391" t="s">
         <v>245</v>
       </c>
       <c r="E21" s="276">
@@ -15721,7 +15794,7 @@
         <f>E21-AL21</f>
         <v>10336000</v>
       </c>
-      <c r="G21" s="343"/>
+      <c r="G21" s="392"/>
       <c r="H21" s="278"/>
       <c r="I21" s="278"/>
       <c r="J21" s="278"/>
@@ -15737,7 +15810,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="343"/>
+      <c r="Q21" s="392"/>
       <c r="R21" s="278"/>
       <c r="S21" s="278"/>
       <c r="T21" s="278"/>
@@ -15764,8 +15837,8 @@
       <c r="AA21" s="278"/>
       <c r="AB21" s="278"/>
       <c r="AC21" s="278"/>
-      <c r="AD21" s="344"/>
-      <c r="AE21" s="345">
+      <c r="AD21" s="393"/>
+      <c r="AE21" s="394">
         <f t="shared" si="0"/>
         <v>10336000</v>
       </c>
@@ -15774,7 +15847,7 @@
         <f>(K21+P21+표1_3[[#This Row],[미수금액2]])-AH21</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="346">
+      <c r="AH21" s="395">
         <f t="shared" si="6"/>
         <v>10336000</v>
       </c>
@@ -15816,38 +15889,38 @@
       </c>
     </row>
     <row r="24" spans="1:54" s="185" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A24" s="354" t="s">
+      <c r="A24" s="363" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="354"/>
-      <c r="C24" s="354"/>
-      <c r="D24" s="354"/>
-      <c r="E24" s="354"/>
-      <c r="F24" s="358" t="s">
+      <c r="B24" s="363"/>
+      <c r="C24" s="363"/>
+      <c r="D24" s="363"/>
+      <c r="E24" s="363"/>
+      <c r="F24" s="364" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="358"/>
-      <c r="H24" s="358"/>
-      <c r="I24" s="358"/>
-      <c r="J24" s="358"/>
-      <c r="K24" s="363" t="s">
+      <c r="G24" s="364"/>
+      <c r="H24" s="364"/>
+      <c r="I24" s="364"/>
+      <c r="J24" s="364"/>
+      <c r="K24" s="365" t="s">
         <v>249</v>
       </c>
-      <c r="L24" s="363"/>
-      <c r="M24" s="363"/>
-      <c r="N24" s="363"/>
-      <c r="O24" s="363"/>
-      <c r="P24" s="363" t="s">
+      <c r="L24" s="365"/>
+      <c r="M24" s="365"/>
+      <c r="N24" s="365"/>
+      <c r="O24" s="365"/>
+      <c r="P24" s="365" t="s">
         <v>250</v>
       </c>
-      <c r="Q24" s="363"/>
-      <c r="R24" s="364" t="s">
+      <c r="Q24" s="365"/>
+      <c r="R24" s="366" t="s">
         <v>115</v>
       </c>
-      <c r="S24" s="364"/>
-      <c r="T24" s="364"/>
-      <c r="U24" s="364"/>
-      <c r="V24" s="364"/>
+      <c r="S24" s="366"/>
+      <c r="T24" s="366"/>
+      <c r="U24" s="366"/>
+      <c r="V24" s="366"/>
     </row>
     <row r="25" spans="1:54" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A25" s="259" t="s">
@@ -15901,11 +15974,11 @@
       <c r="Q25" s="262" t="s">
         <v>254</v>
       </c>
-      <c r="R25" s="364"/>
-      <c r="S25" s="364"/>
-      <c r="T25" s="364"/>
-      <c r="U25" s="364"/>
-      <c r="V25" s="364"/>
+      <c r="R25" s="366"/>
+      <c r="S25" s="366"/>
+      <c r="T25" s="366"/>
+      <c r="U25" s="366"/>
+      <c r="V25" s="366"/>
     </row>
     <row r="26" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A26" s="263">
@@ -15953,11 +16026,11 @@
         <v>1360000</v>
       </c>
       <c r="Q26" s="217"/>
-      <c r="R26" s="365"/>
-      <c r="S26" s="365"/>
-      <c r="T26" s="365"/>
-      <c r="U26" s="365"/>
-      <c r="V26" s="365"/>
+      <c r="R26" s="362"/>
+      <c r="S26" s="362"/>
+      <c r="T26" s="362"/>
+      <c r="U26" s="362"/>
+      <c r="V26" s="362"/>
     </row>
     <row r="27" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A27" s="223">
@@ -16006,11 +16079,11 @@
         <v>1132000</v>
       </c>
       <c r="Q27" s="217"/>
-      <c r="R27" s="366"/>
-      <c r="S27" s="366"/>
-      <c r="T27" s="366"/>
-      <c r="U27" s="366"/>
-      <c r="V27" s="366"/>
+      <c r="R27" s="357"/>
+      <c r="S27" s="357"/>
+      <c r="T27" s="357"/>
+      <c r="U27" s="357"/>
+      <c r="V27" s="357"/>
     </row>
     <row r="28" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A28" s="223">
@@ -16059,11 +16132,11 @@
         <v>1076000</v>
       </c>
       <c r="Q28" s="217"/>
-      <c r="R28" s="366"/>
-      <c r="S28" s="366"/>
-      <c r="T28" s="366"/>
-      <c r="U28" s="366"/>
-      <c r="V28" s="366"/>
+      <c r="R28" s="357"/>
+      <c r="S28" s="357"/>
+      <c r="T28" s="357"/>
+      <c r="U28" s="357"/>
+      <c r="V28" s="357"/>
     </row>
     <row r="29" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A29" s="223">
@@ -16110,13 +16183,13 @@
         <v>583000</v>
       </c>
       <c r="Q29" s="217"/>
-      <c r="R29" s="367" t="s">
+      <c r="R29" s="356" t="s">
         <v>262</v>
       </c>
-      <c r="S29" s="367"/>
-      <c r="T29" s="367"/>
-      <c r="U29" s="367"/>
-      <c r="V29" s="367"/>
+      <c r="S29" s="356"/>
+      <c r="T29" s="356"/>
+      <c r="U29" s="356"/>
+      <c r="V29" s="356"/>
     </row>
     <row r="30" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A30" s="223">
@@ -16165,11 +16238,11 @@
         <v>1074000</v>
       </c>
       <c r="Q30" s="217"/>
-      <c r="R30" s="366"/>
-      <c r="S30" s="366"/>
-      <c r="T30" s="366"/>
-      <c r="U30" s="366"/>
-      <c r="V30" s="366"/>
+      <c r="R30" s="357"/>
+      <c r="S30" s="357"/>
+      <c r="T30" s="357"/>
+      <c r="U30" s="357"/>
+      <c r="V30" s="357"/>
     </row>
     <row r="31" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A31" s="223">
@@ -16216,11 +16289,11 @@
         <v>400000</v>
       </c>
       <c r="Q31" s="217"/>
-      <c r="R31" s="366"/>
-      <c r="S31" s="366"/>
-      <c r="T31" s="366"/>
-      <c r="U31" s="366"/>
-      <c r="V31" s="366"/>
+      <c r="R31" s="357"/>
+      <c r="S31" s="357"/>
+      <c r="T31" s="357"/>
+      <c r="U31" s="357"/>
+      <c r="V31" s="357"/>
     </row>
     <row r="32" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A32" s="223">
@@ -16267,13 +16340,13 @@
         <v>837000</v>
       </c>
       <c r="Q32" s="217"/>
-      <c r="R32" s="367" t="s">
+      <c r="R32" s="356" t="s">
         <v>267</v>
       </c>
-      <c r="S32" s="367"/>
-      <c r="T32" s="367"/>
-      <c r="U32" s="367"/>
-      <c r="V32" s="367"/>
+      <c r="S32" s="356"/>
+      <c r="T32" s="356"/>
+      <c r="U32" s="356"/>
+      <c r="V32" s="356"/>
     </row>
     <row r="33" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A33" s="223">
@@ -16320,13 +16393,13 @@
         <v>143500</v>
       </c>
       <c r="Q33" s="217"/>
-      <c r="R33" s="367" t="s">
+      <c r="R33" s="356" t="s">
         <v>269</v>
       </c>
-      <c r="S33" s="367"/>
-      <c r="T33" s="367"/>
-      <c r="U33" s="367"/>
-      <c r="V33" s="367"/>
+      <c r="S33" s="356"/>
+      <c r="T33" s="356"/>
+      <c r="U33" s="356"/>
+      <c r="V33" s="356"/>
     </row>
     <row r="34" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A34" s="223">
@@ -16375,13 +16448,13 @@
         <v>1700000</v>
       </c>
       <c r="Q34" s="217"/>
-      <c r="R34" s="367" t="s">
+      <c r="R34" s="356" t="s">
         <v>272</v>
       </c>
-      <c r="S34" s="367"/>
-      <c r="T34" s="367"/>
-      <c r="U34" s="367"/>
-      <c r="V34" s="367"/>
+      <c r="S34" s="356"/>
+      <c r="T34" s="356"/>
+      <c r="U34" s="356"/>
+      <c r="V34" s="356"/>
     </row>
     <row r="35" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A35" s="223">
@@ -16430,11 +16503,11 @@
         <v>999000</v>
       </c>
       <c r="Q35" s="217"/>
-      <c r="R35" s="366"/>
-      <c r="S35" s="366"/>
-      <c r="T35" s="366"/>
-      <c r="U35" s="366"/>
-      <c r="V35" s="366"/>
+      <c r="R35" s="357"/>
+      <c r="S35" s="357"/>
+      <c r="T35" s="357"/>
+      <c r="U35" s="357"/>
+      <c r="V35" s="357"/>
     </row>
     <row r="36" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A36" s="223">
@@ -16483,11 +16556,11 @@
         <v>3295000</v>
       </c>
       <c r="Q36" s="217"/>
-      <c r="R36" s="366"/>
-      <c r="S36" s="366"/>
-      <c r="T36" s="366"/>
-      <c r="U36" s="366"/>
-      <c r="V36" s="366"/>
+      <c r="R36" s="357"/>
+      <c r="S36" s="357"/>
+      <c r="T36" s="357"/>
+      <c r="U36" s="357"/>
+      <c r="V36" s="357"/>
     </row>
     <row r="37" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A37" s="223">
@@ -16536,13 +16609,13 @@
         <v>794850</v>
       </c>
       <c r="Q37" s="217"/>
-      <c r="R37" s="367" t="s">
+      <c r="R37" s="356" t="s">
         <v>277</v>
       </c>
-      <c r="S37" s="367"/>
-      <c r="T37" s="367"/>
-      <c r="U37" s="367"/>
-      <c r="V37" s="367"/>
+      <c r="S37" s="356"/>
+      <c r="T37" s="356"/>
+      <c r="U37" s="356"/>
+      <c r="V37" s="356"/>
     </row>
     <row r="38" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A38" s="223">
@@ -16593,11 +16666,11 @@
       <c r="Q38" s="217">
         <v>0</v>
       </c>
-      <c r="R38" s="366"/>
-      <c r="S38" s="366"/>
-      <c r="T38" s="366"/>
-      <c r="U38" s="366"/>
-      <c r="V38" s="366"/>
+      <c r="R38" s="357"/>
+      <c r="S38" s="357"/>
+      <c r="T38" s="357"/>
+      <c r="U38" s="357"/>
+      <c r="V38" s="357"/>
     </row>
     <row r="39" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A39" s="223">
@@ -16644,13 +16717,13 @@
         <v>174000</v>
       </c>
       <c r="Q39" s="239"/>
-      <c r="R39" s="367" t="s">
+      <c r="R39" s="356" t="s">
         <v>281</v>
       </c>
-      <c r="S39" s="367"/>
-      <c r="T39" s="367"/>
-      <c r="U39" s="367"/>
-      <c r="V39" s="367"/>
+      <c r="S39" s="356"/>
+      <c r="T39" s="356"/>
+      <c r="U39" s="356"/>
+      <c r="V39" s="356"/>
     </row>
     <row r="40" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A40" s="223">
@@ -16702,11 +16775,11 @@
         <f>IF(COUNT(O40),0,L40)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="366"/>
-      <c r="S40" s="366"/>
-      <c r="T40" s="366"/>
-      <c r="U40" s="366"/>
-      <c r="V40" s="366"/>
+      <c r="R40" s="357"/>
+      <c r="S40" s="357"/>
+      <c r="T40" s="357"/>
+      <c r="U40" s="357"/>
+      <c r="V40" s="357"/>
     </row>
     <row r="41" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A41" s="223">
@@ -16758,11 +16831,11 @@
         <f>IF(COUNT(O41),0,L41)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="366"/>
-      <c r="S41" s="366"/>
-      <c r="T41" s="366"/>
-      <c r="U41" s="366"/>
-      <c r="V41" s="366"/>
+      <c r="R41" s="357"/>
+      <c r="S41" s="357"/>
+      <c r="T41" s="357"/>
+      <c r="U41" s="357"/>
+      <c r="V41" s="357"/>
     </row>
     <row r="42" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A42" s="223">
@@ -16814,13 +16887,13 @@
         <f>IF(COUNT(O42),0,L42)</f>
         <v>0</v>
       </c>
-      <c r="R42" s="367" t="s">
+      <c r="R42" s="356" t="s">
         <v>286</v>
       </c>
-      <c r="S42" s="367"/>
-      <c r="T42" s="367"/>
-      <c r="U42" s="367"/>
-      <c r="V42" s="367"/>
+      <c r="S42" s="356"/>
+      <c r="T42" s="356"/>
+      <c r="U42" s="356"/>
+      <c r="V42" s="356"/>
     </row>
     <row r="43" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A43" s="223">
@@ -16869,13 +16942,13 @@
         <v>481300</v>
       </c>
       <c r="Q43" s="239"/>
-      <c r="R43" s="367" t="s">
+      <c r="R43" s="356" t="s">
         <v>288</v>
       </c>
-      <c r="S43" s="367"/>
-      <c r="T43" s="367"/>
-      <c r="U43" s="367"/>
-      <c r="V43" s="367"/>
+      <c r="S43" s="356"/>
+      <c r="T43" s="356"/>
+      <c r="U43" s="356"/>
+      <c r="V43" s="356"/>
     </row>
     <row r="44" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A44" s="223">
@@ -16924,11 +16997,11 @@
         <v>1789500</v>
       </c>
       <c r="Q44" s="239"/>
-      <c r="R44" s="366"/>
-      <c r="S44" s="366"/>
-      <c r="T44" s="366"/>
-      <c r="U44" s="366"/>
-      <c r="V44" s="366"/>
+      <c r="R44" s="357"/>
+      <c r="S44" s="357"/>
+      <c r="T44" s="357"/>
+      <c r="U44" s="357"/>
+      <c r="V44" s="357"/>
     </row>
     <row r="45" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A45" s="223">
@@ -16977,13 +17050,13 @@
         <v>2425500</v>
       </c>
       <c r="Q45" s="239"/>
-      <c r="R45" s="367" t="s">
+      <c r="R45" s="356" t="s">
         <v>292</v>
       </c>
-      <c r="S45" s="367"/>
-      <c r="T45" s="367"/>
-      <c r="U45" s="367"/>
-      <c r="V45" s="367"/>
+      <c r="S45" s="356"/>
+      <c r="T45" s="356"/>
+      <c r="U45" s="356"/>
+      <c r="V45" s="356"/>
     </row>
     <row r="46" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A46" s="223">
@@ -17035,13 +17108,13 @@
         <f>IF(COUNT(O46),0,L46)</f>
         <v>0</v>
       </c>
-      <c r="R46" s="367" t="s">
+      <c r="R46" s="356" t="s">
         <v>294</v>
       </c>
-      <c r="S46" s="367"/>
-      <c r="T46" s="367"/>
-      <c r="U46" s="367"/>
-      <c r="V46" s="367"/>
+      <c r="S46" s="356"/>
+      <c r="T46" s="356"/>
+      <c r="U46" s="356"/>
+      <c r="V46" s="356"/>
     </row>
     <row r="47" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A47" s="223">
@@ -17090,13 +17163,13 @@
         <f>J47-P47</f>
         <v>1632000</v>
       </c>
-      <c r="R47" s="367" t="s">
+      <c r="R47" s="356" t="s">
         <v>297</v>
       </c>
-      <c r="S47" s="367"/>
-      <c r="T47" s="367"/>
-      <c r="U47" s="367"/>
-      <c r="V47" s="367"/>
+      <c r="S47" s="356"/>
+      <c r="T47" s="356"/>
+      <c r="U47" s="356"/>
+      <c r="V47" s="356"/>
     </row>
     <row r="48" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A48" s="223">
@@ -17145,13 +17218,13 @@
         <f>J48-P48</f>
         <v>5380000</v>
       </c>
-      <c r="R48" s="367" t="s">
+      <c r="R48" s="356" t="s">
         <v>299</v>
       </c>
-      <c r="S48" s="367"/>
-      <c r="T48" s="367"/>
-      <c r="U48" s="367"/>
-      <c r="V48" s="367"/>
+      <c r="S48" s="356"/>
+      <c r="T48" s="356"/>
+      <c r="U48" s="356"/>
+      <c r="V48" s="356"/>
     </row>
     <row r="49" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A49" s="223">
@@ -17200,13 +17273,13 @@
         <f>J49-P49</f>
         <v>765000</v>
       </c>
-      <c r="R49" s="367" t="s">
+      <c r="R49" s="356" t="s">
         <v>301</v>
       </c>
-      <c r="S49" s="367"/>
-      <c r="T49" s="367"/>
-      <c r="U49" s="367"/>
-      <c r="V49" s="367"/>
+      <c r="S49" s="356"/>
+      <c r="T49" s="356"/>
+      <c r="U49" s="356"/>
+      <c r="V49" s="356"/>
     </row>
     <row r="50" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A50" s="223">
@@ -17255,13 +17328,13 @@
         <f>J50-P50</f>
         <v>2738900</v>
       </c>
-      <c r="R50" s="367" t="s">
+      <c r="R50" s="356" t="s">
         <v>303</v>
       </c>
-      <c r="S50" s="367"/>
-      <c r="T50" s="367"/>
-      <c r="U50" s="367"/>
-      <c r="V50" s="367"/>
+      <c r="S50" s="356"/>
+      <c r="T50" s="356"/>
+      <c r="U50" s="356"/>
+      <c r="V50" s="356"/>
     </row>
     <row r="51" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A51" s="223">
@@ -17307,13 +17380,13 @@
         <f>표6[[#This Row],[미수금액]]</f>
         <v>1523400</v>
       </c>
-      <c r="R51" s="367" t="s">
+      <c r="R51" s="356" t="s">
         <v>305</v>
       </c>
-      <c r="S51" s="367"/>
-      <c r="T51" s="367"/>
-      <c r="U51" s="367"/>
-      <c r="V51" s="367"/>
+      <c r="S51" s="356"/>
+      <c r="T51" s="356"/>
+      <c r="U51" s="356"/>
+      <c r="V51" s="356"/>
     </row>
     <row r="52" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A52" s="223">
@@ -17362,13 +17435,13 @@
         <f t="shared" ref="Q52:Q61" si="11">J52-P52</f>
         <v>1648500</v>
       </c>
-      <c r="R52" s="367" t="s">
+      <c r="R52" s="356" t="s">
         <v>307</v>
       </c>
-      <c r="S52" s="367"/>
-      <c r="T52" s="367"/>
-      <c r="U52" s="367"/>
-      <c r="V52" s="367"/>
+      <c r="S52" s="356"/>
+      <c r="T52" s="356"/>
+      <c r="U52" s="356"/>
+      <c r="V52" s="356"/>
     </row>
     <row r="53" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A53" s="223">
@@ -17417,11 +17490,11 @@
         <f t="shared" si="11"/>
         <v>2625000</v>
       </c>
-      <c r="R53" s="366"/>
-      <c r="S53" s="366"/>
-      <c r="T53" s="366"/>
-      <c r="U53" s="366"/>
-      <c r="V53" s="366"/>
+      <c r="R53" s="357"/>
+      <c r="S53" s="357"/>
+      <c r="T53" s="357"/>
+      <c r="U53" s="357"/>
+      <c r="V53" s="357"/>
     </row>
     <row r="54" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A54" s="223">
@@ -17470,11 +17543,11 @@
         <f t="shared" si="11"/>
         <v>125000</v>
       </c>
-      <c r="R54" s="366"/>
-      <c r="S54" s="366"/>
-      <c r="T54" s="366"/>
-      <c r="U54" s="366"/>
-      <c r="V54" s="366"/>
+      <c r="R54" s="357"/>
+      <c r="S54" s="357"/>
+      <c r="T54" s="357"/>
+      <c r="U54" s="357"/>
+      <c r="V54" s="357"/>
     </row>
     <row r="55" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A55" s="223">
@@ -17523,11 +17596,11 @@
         <f t="shared" si="11"/>
         <v>495000</v>
       </c>
-      <c r="R55" s="366"/>
-      <c r="S55" s="366"/>
-      <c r="T55" s="366"/>
-      <c r="U55" s="366"/>
-      <c r="V55" s="366"/>
+      <c r="R55" s="357"/>
+      <c r="S55" s="357"/>
+      <c r="T55" s="357"/>
+      <c r="U55" s="357"/>
+      <c r="V55" s="357"/>
     </row>
     <row r="56" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A56" s="223">
@@ -17576,13 +17649,13 @@
         <f t="shared" si="11"/>
         <v>485000</v>
       </c>
-      <c r="R56" s="367" t="s">
+      <c r="R56" s="356" t="s">
         <v>314</v>
       </c>
-      <c r="S56" s="367"/>
-      <c r="T56" s="367"/>
-      <c r="U56" s="367"/>
-      <c r="V56" s="367"/>
+      <c r="S56" s="356"/>
+      <c r="T56" s="356"/>
+      <c r="U56" s="356"/>
+      <c r="V56" s="356"/>
     </row>
     <row r="57" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A57" s="223">
@@ -17631,13 +17704,13 @@
         <f t="shared" si="11"/>
         <v>662500</v>
       </c>
-      <c r="R57" s="367" t="s">
+      <c r="R57" s="356" t="s">
         <v>317</v>
       </c>
-      <c r="S57" s="367"/>
-      <c r="T57" s="367"/>
-      <c r="U57" s="367"/>
-      <c r="V57" s="367"/>
+      <c r="S57" s="356"/>
+      <c r="T57" s="356"/>
+      <c r="U57" s="356"/>
+      <c r="V57" s="356"/>
     </row>
     <row r="58" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A58" s="223">
@@ -17687,13 +17760,13 @@
         <f t="shared" si="11"/>
         <v>42350</v>
       </c>
-      <c r="R58" s="367" t="s">
+      <c r="R58" s="356" t="s">
         <v>320</v>
       </c>
-      <c r="S58" s="367"/>
-      <c r="T58" s="367"/>
-      <c r="U58" s="367"/>
-      <c r="V58" s="367"/>
+      <c r="S58" s="356"/>
+      <c r="T58" s="356"/>
+      <c r="U58" s="356"/>
+      <c r="V58" s="356"/>
     </row>
     <row r="59" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A59" s="223">
@@ -17742,13 +17815,13 @@
         <f t="shared" si="11"/>
         <v>3537700</v>
       </c>
-      <c r="R59" s="367" t="s">
+      <c r="R59" s="356" t="s">
         <v>323</v>
       </c>
-      <c r="S59" s="367"/>
-      <c r="T59" s="367"/>
-      <c r="U59" s="367"/>
-      <c r="V59" s="367"/>
+      <c r="S59" s="356"/>
+      <c r="T59" s="356"/>
+      <c r="U59" s="356"/>
+      <c r="V59" s="356"/>
     </row>
     <row r="60" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A60" s="223">
@@ -17797,13 +17870,13 @@
         <f t="shared" si="11"/>
         <v>2200000</v>
       </c>
-      <c r="R60" s="367" t="s">
+      <c r="R60" s="356" t="s">
         <v>325</v>
       </c>
-      <c r="S60" s="367"/>
-      <c r="T60" s="367"/>
-      <c r="U60" s="367"/>
-      <c r="V60" s="367"/>
+      <c r="S60" s="356"/>
+      <c r="T60" s="356"/>
+      <c r="U60" s="356"/>
+      <c r="V60" s="356"/>
     </row>
     <row r="61" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A61" s="223">
@@ -17852,13 +17925,13 @@
         <f t="shared" si="11"/>
         <v>605000</v>
       </c>
-      <c r="R61" s="367" t="s">
+      <c r="R61" s="356" t="s">
         <v>327</v>
       </c>
-      <c r="S61" s="367"/>
-      <c r="T61" s="367"/>
-      <c r="U61" s="367"/>
-      <c r="V61" s="367"/>
+      <c r="S61" s="356"/>
+      <c r="T61" s="356"/>
+      <c r="U61" s="356"/>
+      <c r="V61" s="356"/>
     </row>
     <row r="62" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A62" s="223">
@@ -17907,11 +17980,11 @@
         <f>O62-P62</f>
         <v>5397500</v>
       </c>
-      <c r="R62" s="366"/>
-      <c r="S62" s="366"/>
-      <c r="T62" s="366"/>
-      <c r="U62" s="366"/>
-      <c r="V62" s="366"/>
+      <c r="R62" s="357"/>
+      <c r="S62" s="357"/>
+      <c r="T62" s="357"/>
+      <c r="U62" s="357"/>
+      <c r="V62" s="357"/>
     </row>
     <row r="63" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A63" s="274">
@@ -17960,51 +18033,51 @@
         <f>IF(COUNT(O63),0,L63)</f>
         <v>0</v>
       </c>
-      <c r="R63" s="368"/>
-      <c r="S63" s="368"/>
-      <c r="T63" s="368"/>
-      <c r="U63" s="368"/>
-      <c r="V63" s="368"/>
+      <c r="R63" s="358"/>
+      <c r="S63" s="358"/>
+      <c r="T63" s="358"/>
+      <c r="U63" s="358"/>
+      <c r="V63" s="358"/>
     </row>
     <row r="64" spans="1:22" s="186" customFormat="1" ht="24.75" customHeight="1"/>
     <row r="65" spans="1:31" s="186" customFormat="1" ht="24.75" customHeight="1"/>
     <row r="66" spans="1:31" s="185" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A66" s="369" t="s">
+      <c r="A66" s="359" t="s">
         <v>331</v>
       </c>
-      <c r="B66" s="369"/>
-      <c r="C66" s="369"/>
-      <c r="D66" s="369"/>
-      <c r="E66" s="369"/>
-      <c r="F66" s="369"/>
-      <c r="G66" s="370" t="s">
+      <c r="B66" s="359"/>
+      <c r="C66" s="359"/>
+      <c r="D66" s="359"/>
+      <c r="E66" s="359"/>
+      <c r="F66" s="359"/>
+      <c r="G66" s="360" t="s">
         <v>332</v>
       </c>
-      <c r="H66" s="370"/>
-      <c r="I66" s="370"/>
-      <c r="J66" s="370"/>
-      <c r="K66" s="370"/>
-      <c r="L66" s="371" t="s">
+      <c r="H66" s="360"/>
+      <c r="I66" s="360"/>
+      <c r="J66" s="360"/>
+      <c r="K66" s="360"/>
+      <c r="L66" s="361" t="s">
         <v>333</v>
       </c>
-      <c r="M66" s="371"/>
-      <c r="N66" s="371"/>
-      <c r="O66" s="371"/>
-      <c r="P66" s="371"/>
-      <c r="Q66" s="371"/>
-      <c r="R66" s="371"/>
-      <c r="S66" s="371"/>
-      <c r="T66" s="371"/>
-      <c r="U66" s="371"/>
-      <c r="V66" s="371"/>
-      <c r="W66" s="372" t="s">
+      <c r="M66" s="361"/>
+      <c r="N66" s="361"/>
+      <c r="O66" s="361"/>
+      <c r="P66" s="361"/>
+      <c r="Q66" s="361"/>
+      <c r="R66" s="361"/>
+      <c r="S66" s="361"/>
+      <c r="T66" s="361"/>
+      <c r="U66" s="361"/>
+      <c r="V66" s="361"/>
+      <c r="W66" s="352" t="s">
         <v>334</v>
       </c>
-      <c r="X66" s="372"/>
-      <c r="Y66" s="372"/>
-      <c r="Z66" s="372"/>
-      <c r="AA66" s="372"/>
-      <c r="AB66" s="372"/>
+      <c r="X66" s="352"/>
+      <c r="Y66" s="352"/>
+      <c r="Z66" s="352"/>
+      <c r="AA66" s="352"/>
+      <c r="AB66" s="352"/>
       <c r="AC66" s="283"/>
       <c r="AD66" s="283"/>
       <c r="AE66" s="283"/>
@@ -18028,25 +18101,25 @@
       <c r="F67" s="190" t="s">
         <v>336</v>
       </c>
-      <c r="G67" s="373" t="s">
+      <c r="G67" s="353" t="s">
         <v>337</v>
       </c>
-      <c r="H67" s="373"/>
-      <c r="I67" s="374" t="s">
+      <c r="H67" s="353"/>
+      <c r="I67" s="354" t="s">
         <v>338</v>
       </c>
-      <c r="J67" s="374"/>
+      <c r="J67" s="354"/>
       <c r="K67" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="L67" s="375" t="s">
+      <c r="L67" s="355" t="s">
         <v>340</v>
       </c>
-      <c r="M67" s="375"/>
-      <c r="N67" s="375" t="s">
+      <c r="M67" s="355"/>
+      <c r="N67" s="355" t="s">
         <v>341</v>
       </c>
-      <c r="O67" s="375"/>
+      <c r="O67" s="355"/>
       <c r="P67" s="188" t="s">
         <v>342</v>
       </c>
@@ -18092,72 +18165,72 @@
       <c r="AD67" s="287" t="s">
         <v>202</v>
       </c>
-      <c r="AE67" s="329"/>
+      <c r="AE67" s="373"/>
     </row>
     <row r="68" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A68" s="377">
+      <c r="A68" s="347">
         <v>1</v>
       </c>
-      <c r="B68" s="378" t="s">
+      <c r="B68" s="348" t="s">
         <v>349</v>
       </c>
-      <c r="C68" s="379" t="s">
+      <c r="C68" s="349" t="s">
         <v>350</v>
       </c>
-      <c r="D68" s="380" t="s">
+      <c r="D68" s="350" t="s">
         <v>351</v>
       </c>
-      <c r="E68" s="381">
+      <c r="E68" s="351">
         <f>SUM(F68:F69)</f>
         <v>179900000</v>
       </c>
       <c r="F68" s="288">
         <v>108900000</v>
       </c>
-      <c r="G68" s="388">
+      <c r="G68" s="343">
         <v>0.12</v>
       </c>
-      <c r="H68" s="388"/>
-      <c r="I68" s="389">
+      <c r="H68" s="343"/>
+      <c r="I68" s="344">
         <f>F68*G68</f>
         <v>13068000</v>
       </c>
-      <c r="J68" s="389"/>
-      <c r="K68" s="390">
+      <c r="J68" s="344"/>
+      <c r="K68" s="345">
         <f>SUM(I68:J70)</f>
         <v>20168000</v>
       </c>
-      <c r="L68" s="391">
+      <c r="L68" s="346">
         <v>107480000</v>
       </c>
-      <c r="M68" s="391"/>
-      <c r="N68" s="376">
+      <c r="M68" s="346"/>
+      <c r="N68" s="337">
         <v>10000000</v>
       </c>
-      <c r="O68" s="376"/>
-      <c r="P68" s="376">
+      <c r="O68" s="337"/>
+      <c r="P68" s="337">
         <v>94680</v>
       </c>
-      <c r="Q68" s="376">
-        <v>0</v>
-      </c>
-      <c r="R68" s="376">
-        <v>0</v>
-      </c>
-      <c r="S68" s="376">
-        <v>0</v>
-      </c>
-      <c r="T68" s="376">
+      <c r="Q68" s="337">
+        <v>0</v>
+      </c>
+      <c r="R68" s="337">
+        <v>0</v>
+      </c>
+      <c r="S68" s="337">
+        <v>0</v>
+      </c>
+      <c r="T68" s="337">
         <v>200000</v>
       </c>
-      <c r="U68" s="376">
-        <v>0</v>
-      </c>
-      <c r="V68" s="383">
+      <c r="U68" s="337">
+        <v>0</v>
+      </c>
+      <c r="V68" s="338">
         <f>SUM(L68:U69)</f>
         <v>117774680</v>
       </c>
-      <c r="W68" s="384">
+      <c r="W68" s="339">
         <f>E68-K68-V68</f>
         <v>41957320</v>
       </c>
@@ -18181,44 +18254,44 @@
         <f>SUM(IF(COUNTBLANK(X68),V68,0))</f>
         <v>0</v>
       </c>
-      <c r="AE68" s="297"/>
+      <c r="AE68" s="374"/>
     </row>
     <row r="69" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A69" s="377"/>
-      <c r="B69" s="378"/>
-      <c r="C69" s="378"/>
-      <c r="D69" s="380"/>
-      <c r="E69" s="381"/>
-      <c r="F69" s="385">
+      <c r="A69" s="347"/>
+      <c r="B69" s="348"/>
+      <c r="C69" s="348"/>
+      <c r="D69" s="350"/>
+      <c r="E69" s="351"/>
+      <c r="F69" s="340">
         <v>71000000</v>
       </c>
-      <c r="G69" s="386">
+      <c r="G69" s="341">
         <v>0.1</v>
       </c>
-      <c r="H69" s="386"/>
-      <c r="I69" s="387">
+      <c r="H69" s="341"/>
+      <c r="I69" s="342">
         <f>F69*G69</f>
         <v>7100000</v>
       </c>
-      <c r="J69" s="387"/>
-      <c r="K69" s="390"/>
-      <c r="L69" s="391"/>
-      <c r="M69" s="391"/>
-      <c r="N69" s="376"/>
-      <c r="O69" s="376"/>
-      <c r="P69" s="376"/>
-      <c r="Q69" s="376"/>
-      <c r="R69" s="376"/>
-      <c r="S69" s="376"/>
-      <c r="T69" s="376"/>
-      <c r="U69" s="376"/>
-      <c r="V69" s="383"/>
-      <c r="W69" s="384"/>
+      <c r="J69" s="342"/>
+      <c r="K69" s="345"/>
+      <c r="L69" s="346"/>
+      <c r="M69" s="346"/>
+      <c r="N69" s="337"/>
+      <c r="O69" s="337"/>
+      <c r="P69" s="337"/>
+      <c r="Q69" s="337"/>
+      <c r="R69" s="337"/>
+      <c r="S69" s="337"/>
+      <c r="T69" s="337"/>
+      <c r="U69" s="337"/>
+      <c r="V69" s="338"/>
+      <c r="W69" s="339"/>
       <c r="X69" s="218">
         <f>(W68-X68)-X70</f>
         <v>7587196</v>
       </c>
-      <c r="Y69" s="382">
+      <c r="Y69" s="336">
         <v>45657</v>
       </c>
       <c r="Z69" s="213"/>
@@ -18234,36 +18307,36 @@
         <f>SUM(IF(COUNTBLANK(X69),V68,0))</f>
         <v>0</v>
       </c>
-      <c r="AE69" s="297"/>
+      <c r="AE69" s="374"/>
     </row>
     <row r="70" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A70" s="377"/>
-      <c r="B70" s="378"/>
-      <c r="C70" s="378"/>
-      <c r="D70" s="380"/>
-      <c r="E70" s="381"/>
-      <c r="F70" s="385"/>
-      <c r="G70" s="386"/>
-      <c r="H70" s="386"/>
-      <c r="I70" s="387"/>
-      <c r="J70" s="387"/>
-      <c r="K70" s="390"/>
-      <c r="L70" s="391"/>
-      <c r="M70" s="391"/>
-      <c r="N70" s="376"/>
-      <c r="O70" s="376"/>
-      <c r="P70" s="376"/>
-      <c r="Q70" s="376"/>
-      <c r="R70" s="376"/>
-      <c r="S70" s="376"/>
-      <c r="T70" s="376"/>
-      <c r="U70" s="376"/>
-      <c r="V70" s="383"/>
-      <c r="W70" s="384"/>
+      <c r="A70" s="347"/>
+      <c r="B70" s="348"/>
+      <c r="C70" s="348"/>
+      <c r="D70" s="350"/>
+      <c r="E70" s="351"/>
+      <c r="F70" s="340"/>
+      <c r="G70" s="341"/>
+      <c r="H70" s="341"/>
+      <c r="I70" s="342"/>
+      <c r="J70" s="342"/>
+      <c r="K70" s="345"/>
+      <c r="L70" s="346"/>
+      <c r="M70" s="346"/>
+      <c r="N70" s="337"/>
+      <c r="O70" s="337"/>
+      <c r="P70" s="337"/>
+      <c r="Q70" s="337"/>
+      <c r="R70" s="337"/>
+      <c r="S70" s="337"/>
+      <c r="T70" s="337"/>
+      <c r="U70" s="337"/>
+      <c r="V70" s="338"/>
+      <c r="W70" s="339"/>
       <c r="X70" s="292">
         <v>5000000</v>
       </c>
-      <c r="Y70" s="382"/>
+      <c r="Y70" s="336"/>
       <c r="Z70" s="278"/>
       <c r="AA70" s="278"/>
       <c r="AB70" s="292">
@@ -18278,7 +18351,7 @@
         <f>SUM(IF(COUNTBLANK(X70),V70,0))</f>
         <v>0</v>
       </c>
-      <c r="AE70" s="297"/>
+      <c r="AE70" s="374"/>
     </row>
     <row r="71" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="B71" s="295"/>
@@ -21154,6 +21227,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:V25"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="R33:V33"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="R36:V36"/>
+    <mergeCell ref="R37:V37"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="R49:V49"/>
+    <mergeCell ref="R50:V50"/>
+    <mergeCell ref="R51:V51"/>
+    <mergeCell ref="R52:V52"/>
+    <mergeCell ref="R53:V53"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="R55:V55"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="R58:V58"/>
+    <mergeCell ref="R59:V59"/>
+    <mergeCell ref="R60:V60"/>
+    <mergeCell ref="R61:V61"/>
+    <mergeCell ref="R62:V62"/>
+    <mergeCell ref="R63:V63"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="L66:V66"/>
+    <mergeCell ref="W66:AB66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
     <mergeCell ref="Y69:Y70"/>
     <mergeCell ref="U68:U70"/>
     <mergeCell ref="V68:V70"/>
@@ -21170,146 +21310,79 @@
     <mergeCell ref="I68:J68"/>
     <mergeCell ref="K68:K70"/>
     <mergeCell ref="L68:M70"/>
-    <mergeCell ref="N68:O70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="W66:AB66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="R61:V61"/>
-    <mergeCell ref="R62:V62"/>
-    <mergeCell ref="R63:V63"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="L66:V66"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="R57:V57"/>
-    <mergeCell ref="R58:V58"/>
-    <mergeCell ref="R59:V59"/>
-    <mergeCell ref="R60:V60"/>
-    <mergeCell ref="R51:V51"/>
-    <mergeCell ref="R52:V52"/>
-    <mergeCell ref="R53:V53"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="R55:V55"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="R49:V49"/>
-    <mergeCell ref="R50:V50"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="R36:V36"/>
-    <mergeCell ref="R37:V37"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="R32:V32"/>
-    <mergeCell ref="R33:V33"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:V25"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="W3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B26:D46">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>$J26&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>$O26&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:D63">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$J63&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$O63&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:F68 F69">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$AC68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:H160">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J28 O26:O28">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29 O29">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J62 O30:O62">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63 O63">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P62">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:Q62">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q63">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB68:AE71">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/매출현황.xlsx
+++ b/매출현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\넷폼업무\005. 경리업무\2026년\001.일계표_넷폼_26년\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2E6BD-F53F-43D5-A52B-53A7897770A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D831146B-73C4-4B22-A655-4C5715734726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="443">
   <si>
     <r>
       <rPr>
@@ -2419,6 +2419,124 @@
     <t>미수금액2</t>
     <phoneticPr fontId="47" type="noConversion"/>
   </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>20260108-10260108-95917215</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>408-81-67484</t>
+  </si>
+  <si>
+    <t>정광이엔씨</t>
+  </si>
+  <si>
+    <t>박성배</t>
+  </si>
+  <si>
+    <t>서울특별시 광진구 뚝섬로31길 11(자양동,2층)</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>jungyoon0343@hanmail.net</t>
+  </si>
+  <si>
+    <t>528,000</t>
+  </si>
+  <si>
+    <t>경동 안성공도만정626</t>
+  </si>
+  <si>
+    <t>(주)석민이앤씨</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>청명이앤디</t>
+    </r>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영주동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도경오벨리스아파트</t>
+    </r>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2436,7 +2554,7 @@
     <numFmt numFmtId="183" formatCode="0&quot;일&quot;"/>
     <numFmt numFmtId="184" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2771,6 +2889,19 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -4326,7 +4457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5264,33 +5395,168 @@
     <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="33" fillId="17" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="45" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="52" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="17" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="63" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="17" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="35" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="33" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5318,152 +5584,8 @@
     <xf numFmtId="178" fontId="33" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="35" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="17" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="33" fillId="17" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="45" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="52" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="17" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="63" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5477,80 +5599,18 @@
     <cellStyle name="표준 125" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="표준 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79979857783745845"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79979857783745845"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5776,6 +5836,40 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5891,7 +5985,7 @@
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="예정14"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="입금_x000a_(B)"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="정산_x000a_지연일_x000a_(A-B)"/>
-    <tableColumn id="34" xr3:uid="{06DBC617-E39F-4D9E-A0D5-9A256559E921}" name="미수금액2" dataDxfId="0" dataCellStyle="쉼표 [0]">
+    <tableColumn id="34" xr3:uid="{06DBC617-E39F-4D9E-A0D5-9A256559E921}" name="미수금액2" dataDxfId="26" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(COUNT(AC5),0,Y5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="최종수금액"/>
@@ -5905,8 +5999,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표5_3" displayName="표5_3" ref="A74:I160" totalsRowShown="0">
-  <autoFilter ref="A74:I160" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표5_3" displayName="표5_3" ref="A74:I161" totalsRowShown="0">
+  <autoFilter ref="A74:I161" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="발행일"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="업체명"/>
@@ -6125,8 +6219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6168,26 +6262,26 @@
     <row r="2" spans="1:24" ht="30" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="331"/>
-      <c r="H2" s="331"/>
-      <c r="I2" s="331"/>
-      <c r="J2" s="331"/>
-      <c r="K2" s="331"/>
-      <c r="L2" s="331"/>
-      <c r="M2" s="331"/>
-      <c r="N2" s="331"/>
-      <c r="O2" s="331"/>
-      <c r="P2" s="331"/>
-      <c r="Q2" s="331"/>
-      <c r="R2" s="331"/>
-      <c r="S2" s="331"/>
-      <c r="T2" s="331"/>
+      <c r="C2" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
+      <c r="L2" s="347"/>
+      <c r="M2" s="347"/>
+      <c r="N2" s="347"/>
+      <c r="O2" s="347"/>
+      <c r="P2" s="347"/>
+      <c r="Q2" s="347"/>
+      <c r="R2" s="347"/>
+      <c r="S2" s="347"/>
+      <c r="T2" s="347"/>
       <c r="U2" s="8"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
@@ -6260,30 +6354,30 @@
     <row r="6" spans="1:24" ht="21.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332" t="s">
+      <c r="D6" s="348"/>
+      <c r="E6" s="348" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332" t="s">
+      <c r="F6" s="348"/>
+      <c r="G6" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="332"/>
+      <c r="H6" s="348"/>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="333" t="s">
+      <c r="K6" s="349" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="333"/>
-      <c r="M6" s="334" t="s">
+      <c r="L6" s="349"/>
+      <c r="M6" s="350" t="s">
         <v>427</v>
       </c>
-      <c r="N6" s="335"/>
+      <c r="N6" s="351"/>
       <c r="O6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6300,38 +6394,38 @@
     <row r="7" spans="1:24" ht="25.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="329">
+      <c r="C7" s="352">
         <v>23000000000</v>
       </c>
-      <c r="D7" s="329"/>
-      <c r="E7" s="329">
+      <c r="D7" s="352"/>
+      <c r="E7" s="352">
         <f>Q13</f>
-        <v>604917600</v>
-      </c>
-      <c r="F7" s="329"/>
-      <c r="G7" s="329">
+        <v>612945600</v>
+      </c>
+      <c r="F7" s="352"/>
+      <c r="G7" s="352">
         <f>Q17</f>
-        <v>42126600</v>
-      </c>
-      <c r="H7" s="329"/>
+        <v>50154600</v>
+      </c>
+      <c r="H7" s="352"/>
       <c r="I7" s="20">
         <f>IF(C7&gt;0, G7/C7, 0)</f>
-        <v>1.8315913043478261E-3</v>
+        <v>2.1806347826086956E-3</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="330">
+      <c r="K7" s="353">
         <f ca="1">(SUM(컨설팅!P:P)+SUM(S_N솔루션!P:P)+SUM(특허기술자문료!P:P))</f>
         <v>650956900</v>
       </c>
-      <c r="L7" s="330"/>
-      <c r="M7" s="330">
+      <c r="L7" s="353"/>
+      <c r="M7" s="353">
         <f ca="1">(SUMIF(컨설팅!S:S,"확인요망",컨설팅!H:H)+SUMIF(S_N솔루션!S:S,"확인요망",S_N솔루션!H:H)+SUMIF(특허기술자문료!S:S,"확인요망",특허기술자문료!I:I))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="330"/>
+      <c r="N7" s="353"/>
       <c r="O7" s="21">
         <f>IF(G7&gt;0, (SUM(컨설팅!O:O)+SUM(S_N솔루션!O:O)+SUM(특허기술자문료!O:O))/1.1/G7, 0)</f>
-        <v>0.25199280264725848</v>
+        <v>0.36119518448955829</v>
       </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -6510,11 +6604,11 @@
       </c>
       <c r="D13" s="31">
         <f>SUMIFS(컨설팅!H:H,컨설팅!J:J,"&gt;="&amp;DATE(2025,12,1),컨설팅!J:J,"&lt;="&amp;EOMONTH(DATE(2025,12,1),0))+SUMIFS(S_N솔루션!H:H,S_N솔루션!J:J,"&gt;="&amp;DATE(2025,12,1),S_N솔루션!J:J,"&lt;="&amp;EOMONTH(DATE(2025,12,1),0))+SUMIFS(특허기술자문료!I:I,특허기술자문료!J:J,"&gt;="&amp;DATE(2025,12,1),특허기술자문료!J:J,"&lt;="&amp;EOMONTH(DATE(2025,12,1),0))+SUMPRODUCT((LEFT(자재판매!A2:A500,7)="2025-12")*(자재판매!P2:P500))</f>
-        <v>573406600</v>
+        <v>580906600</v>
       </c>
       <c r="E13" s="31">
         <f>SUMIFS(컨설팅!H:H,컨설팅!J:J,"&gt;="&amp;DATE(2026,1,1),컨설팅!J:J,"&lt;="&amp;EOMONTH(DATE(2026,1,1),0))+SUMIFS(S_N솔루션!H:H,S_N솔루션!J:J,"&gt;="&amp;DATE(2026,1,1),S_N솔루션!J:J,"&lt;="&amp;EOMONTH(DATE(2026,1,1),0))+SUMIFS(특허기술자문료!I:I,특허기술자문료!J:J,"&gt;="&amp;DATE(2026,1,1),특허기술자문료!J:J,"&lt;="&amp;EOMONTH(DATE(2026,1,1),0))+SUMPRODUCT((LEFT(자재판매!A2:A500,7)="2026-01")*(자재판매!P2:P500))</f>
-        <v>31511000</v>
+        <v>32039000</v>
       </c>
       <c r="F13" s="31">
         <f>SUMIFS(컨설팅!H:H,컨설팅!J:J,"&gt;="&amp;DATE(2026,2,1),컨설팅!J:J,"&lt;="&amp;EOMONTH(DATE(2026,2,1),0))+SUMIFS(S_N솔루션!H:H,S_N솔루션!J:J,"&gt;="&amp;DATE(2026,2,1),S_N솔루션!J:J,"&lt;="&amp;EOMONTH(DATE(2026,2,1),0))+SUMIFS(특허기술자문료!I:I,특허기술자문료!J:J,"&gt;="&amp;DATE(2026,2,1),특허기술자문료!J:J,"&lt;="&amp;EOMONTH(DATE(2026,2,1),0))+SUMPRODUCT((LEFT(자재판매!A2:A500,7)="2026-02")*(자재판매!P2:P500))</f>
@@ -6562,7 +6656,7 @@
       </c>
       <c r="Q13" s="31">
         <f>SUM(D13:P13)</f>
-        <v>604917600</v>
+        <v>612945600</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -6694,7 +6788,7 @@
       </c>
       <c r="E17" s="31">
         <f>SUMIFS(컨설팅!H:H,컨설팅!L:L,"&gt;="&amp;DATE(2026,1,1),컨설팅!L:L,"&lt;="&amp;EOMONTH(DATE(2026,1,1),0))+SUMIFS(S_N솔루션!H:H,S_N솔루션!K:K,"&gt;="&amp;DATE(2026,1,1),S_N솔루션!K:K,"&lt;="&amp;EOMONTH(DATE(2026,1,1),0))+SUMIFS(특허기술자문료!I:I,특허기술자문료!K:K,"&gt;="&amp;DATE(2026,1,1),특허기술자문료!K:K,"&lt;="&amp;EOMONTH(DATE(2026,1,1),0))+SUMPRODUCT((LEFT(자재판매!A2:A500,7)="2026-01")*(자재판매!P2:P500))</f>
-        <v>42126600</v>
+        <v>50154600</v>
       </c>
       <c r="F17" s="31">
         <f>SUMIFS(컨설팅!H:H,컨설팅!L:L,"&gt;="&amp;DATE(2026,2,1),컨설팅!L:L,"&lt;="&amp;EOMONTH(DATE(2026,2,1),0))+SUMIFS(S_N솔루션!H:H,S_N솔루션!K:K,"&gt;="&amp;DATE(2026,2,1),S_N솔루션!K:K,"&lt;="&amp;EOMONTH(DATE(2026,2,1),0))+SUMIFS(특허기술자문료!I:I,특허기술자문료!K:K,"&gt;="&amp;DATE(2026,2,1),특허기술자문료!K:K,"&lt;="&amp;EOMONTH(DATE(2026,2,1),0))+SUMPRODUCT((LEFT(자재판매!A2:A500,7)="2026-02")*(자재판매!P2:P500))</f>
@@ -6742,7 +6836,7 @@
       </c>
       <c r="Q17" s="31">
         <f>SUM(D17:P17)</f>
-        <v>42126600</v>
+        <v>50154600</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -7050,15 +7144,15 @@
       </c>
       <c r="E27" s="33">
         <f>SUMIFS(특허기술자문료!I:I,특허기술자문료!J:J,"&gt;="&amp;DATE(2025,12,1),특허기술자문료!J:J,"&lt;="&amp;DATE(2026,12,31))</f>
-        <v>10615600</v>
+        <v>18115600</v>
       </c>
       <c r="F27" s="33">
         <f>SUMIFS(특허기술자문료!I:I,특허기술자문료!K:K,"&gt;="&amp;DATE(2025,12,1),특허기술자문료!K:K,"&lt;="&amp;DATE(2026,12,31))</f>
-        <v>10615600</v>
+        <v>18115600</v>
       </c>
       <c r="G27" s="33">
         <f>SUM(특허기술자문료!O:O)/1.1</f>
-        <v>10615600</v>
+        <v>18115600</v>
       </c>
       <c r="H27" s="33">
         <f ca="1">SUMIF(특허기술자문료!P:P,"확인요망",특허기술자문료!O:O)/1.1</f>
@@ -7092,19 +7186,19 @@
       </c>
       <c r="D28" s="36">
         <f>COUNTA(자재판매!A:A)-1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="36">
         <f>SUMPRODUCT((LEFT(자재판매!A2:A500,7)&gt;="2025-12")*(LEFT(자재판매!A2:A500,7)&lt;="2026-12")*(자재판매!P2:P500))</f>
-        <v>31511000</v>
+        <v>32039000</v>
       </c>
       <c r="F28" s="36">
         <f>SUMPRODUCT((LEFT(자재판매!A2:A500,7)&gt;="2025-12")*(LEFT(자재판매!A2:A500,7)&lt;="2026-12")*(자재판매!P2:P500))</f>
-        <v>31511000</v>
+        <v>32039000</v>
       </c>
       <c r="G28" s="36">
         <f>SUM(자재판매!AK:AK)/1.1</f>
-        <v>31511000.000000004</v>
+        <v>32039000.000000004</v>
       </c>
       <c r="H28" s="36">
         <f ca="1">SUMIF(자재판매!AL:AL,"확인요망",자재판매!AK:AK)/1.1</f>
@@ -7261,19 +7355,19 @@
       </c>
       <c r="D32" s="43">
         <f>SUM(D25:D28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" s="43">
         <f>SUM(E25:E31)</f>
-        <v>604917600</v>
+        <v>612945600</v>
       </c>
       <c r="F32" s="43">
         <f>SUM(F25:F31)</f>
-        <v>42126600</v>
+        <v>50154600</v>
       </c>
       <c r="G32" s="43">
         <f>SUM(G25:G31)</f>
-        <v>633905600</v>
+        <v>641933600</v>
       </c>
       <c r="H32" s="43">
         <f ca="1">SUM(H25:H31)</f>
@@ -7547,7 +7641,7 @@
       </c>
       <c r="D38" s="33">
         <f>SUMIFS(특허기술자문료!I:I,특허기술자문료!K:K,"&gt;="&amp;DATE(2026,1,1),특허기술자문료!K:K,"&lt;="&amp;EOMONTH(DATE(2026,1,1),0))</f>
-        <v>10615600</v>
+        <v>18115600</v>
       </c>
       <c r="E38" s="33">
         <f>SUMIFS(특허기술자문료!I:I,특허기술자문료!K:K,"&gt;="&amp;DATE(2026,2,1),특허기술자문료!K:K,"&lt;="&amp;EOMONTH(DATE(2026,2,1),0))</f>
@@ -7595,7 +7689,7 @@
       </c>
       <c r="P38" s="33">
         <f t="shared" si="0"/>
-        <v>10615600</v>
+        <v>18115600</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -7614,7 +7708,7 @@
       </c>
       <c r="D39" s="47">
         <f>SUMPRODUCT((LEFT(자재판매!A2:A500,7)="2026-01")*(자재판매!P2:P500))</f>
-        <v>31511000</v>
+        <v>32039000</v>
       </c>
       <c r="E39" s="47">
         <f>SUMPRODUCT((LEFT(자재판매!A2:A500,7)="2026-02")*(자재판매!P2:P500))</f>
@@ -7662,7 +7756,7 @@
       </c>
       <c r="P39" s="47">
         <f t="shared" si="0"/>
-        <v>31511000</v>
+        <v>32039000</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
@@ -7774,7 +7868,7 @@
       </c>
       <c r="D43" s="43">
         <f t="shared" ref="D43:P43" si="1">SUM(D36:D42)</f>
-        <v>42126600</v>
+        <v>50154600</v>
       </c>
       <c r="E43" s="43">
         <f t="shared" si="1"/>
@@ -7822,7 +7916,7 @@
       </c>
       <c r="P43" s="43">
         <f t="shared" si="1"/>
-        <v>42126600</v>
+        <v>50154600</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -8211,17 +8305,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="C2:T2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10770,17 +10864,17 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B2:S25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E87">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>AND($I2&lt;&gt;"선금", $I2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:W25 Y2:AD25 AF2:AK25 B26:AM87">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10933,7 +11027,7 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B2:P3">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$I2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10944,10 +11038,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:Q4"/>
+  <dimension ref="B1:Q5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11159,6 +11253,46 @@
         <v>-</v>
       </c>
     </row>
+    <row r="5" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B5" s="157">
+        <v>3</v>
+      </c>
+      <c r="C5" s="158" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="392" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" s="392" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="154">
+        <v>7500000</v>
+      </c>
+      <c r="J5" s="111">
+        <v>46020</v>
+      </c>
+      <c r="K5" s="111">
+        <v>46028</v>
+      </c>
+      <c r="L5" s="162">
+        <f>IF(K5&lt;&gt;"", K5+30, "")</f>
+        <v>46058</v>
+      </c>
+      <c r="M5" s="165"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="163">
+        <f>(I5*1.1)-N5</f>
+        <v>8250000.0000000009</v>
+      </c>
+      <c r="P5" s="164" t="str">
+        <f ca="1">IF(AND(O5&lt;&gt;"",O5&gt;0,M5="",K5&lt;&gt;"",TODAY()&gt;K5+30),"확인요망","-")</f>
+        <v>-</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -11171,7 +11305,7 @@
   <dimension ref="A1:AR200"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5"/>
@@ -11409,7 +11543,7 @@
         <v>146</v>
       </c>
       <c r="AH2" s="162">
-        <f t="shared" ref="AH2:AH14" si="0">IF(A2&lt;&gt;"", A2+30, "")</f>
+        <f t="shared" ref="AH2:AH19" si="0">IF(A2&lt;&gt;"", A2+30, "")</f>
         <v>46057</v>
       </c>
       <c r="AI2" s="132"/>
@@ -11739,48 +11873,114 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="162" t="str">
+      <c r="A6" s="169" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="169" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="132" t="s">
+        <v>431</v>
+      </c>
+      <c r="G6" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="132" t="s">
+        <v>432</v>
+      </c>
+      <c r="K6" s="132" t="s">
+        <v>431</v>
+      </c>
+      <c r="L6" s="132" t="s">
+        <v>433</v>
+      </c>
+      <c r="M6" s="132" t="s">
+        <v>434</v>
+      </c>
+      <c r="N6" s="132" t="s">
+        <v>435</v>
+      </c>
+      <c r="O6" s="132">
+        <v>580800</v>
+      </c>
+      <c r="P6" s="171">
+        <v>528000</v>
+      </c>
+      <c r="Q6" s="132">
+        <v>52800</v>
+      </c>
+      <c r="R6" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="S6" s="132" t="s">
+        <v>436</v>
+      </c>
+      <c r="T6" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="V6" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="W6" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="X6" s="132" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y6" s="132" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z6" s="132" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA6" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB6" s="132" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC6" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" s="132" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE6" s="132">
+        <v>528000</v>
+      </c>
+      <c r="AF6" s="132">
+        <v>52800</v>
+      </c>
+      <c r="AG6" s="132" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH6" s="162">
         <f t="shared" si="0"/>
-        <v/>
+        <v>46060</v>
       </c>
       <c r="AI6" s="132"/>
       <c r="AJ6" s="132"/>
       <c r="AK6" s="151">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>580800</v>
       </c>
       <c r="AL6" s="172" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12215,8 +12415,8 @@
       <c r="AE15" s="132"/>
       <c r="AF15" s="132"/>
       <c r="AG15" s="132"/>
-      <c r="AH15" s="174" t="str">
-        <f t="shared" ref="AH15:AH34" si="3">IF(A15&lt;&gt;"", A15+45, "")</f>
+      <c r="AH15" s="162" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AI15" s="132"/>
@@ -12264,8 +12464,8 @@
       <c r="AE16" s="132"/>
       <c r="AF16" s="132"/>
       <c r="AG16" s="132"/>
-      <c r="AH16" s="174" t="str">
-        <f t="shared" si="3"/>
+      <c r="AH16" s="162" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AI16" s="132"/>
@@ -12313,8 +12513,8 @@
       <c r="AE17" s="132"/>
       <c r="AF17" s="132"/>
       <c r="AG17" s="132"/>
-      <c r="AH17" s="174" t="str">
-        <f t="shared" si="3"/>
+      <c r="AH17" s="162" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AI17" s="132"/>
@@ -12362,8 +12562,8 @@
       <c r="AE18" s="132"/>
       <c r="AF18" s="132"/>
       <c r="AG18" s="132"/>
-      <c r="AH18" s="174" t="str">
-        <f t="shared" si="3"/>
+      <c r="AH18" s="162" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AI18" s="132"/>
@@ -12411,8 +12611,8 @@
       <c r="AE19" s="132"/>
       <c r="AF19" s="132"/>
       <c r="AG19" s="132"/>
-      <c r="AH19" s="174" t="str">
-        <f t="shared" si="3"/>
+      <c r="AH19" s="162" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AI19" s="132"/>
@@ -12461,7 +12661,7 @@
       <c r="AF20" s="132"/>
       <c r="AG20" s="132"/>
       <c r="AH20" s="174" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AH15:AH34" si="3">IF(A20&lt;&gt;"", A20+45, "")</f>
         <v/>
       </c>
       <c r="AI20" s="132"/>
@@ -13329,22 +13529,22 @@
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="A2:AK2 AK15:AL34 A22:AF23 AH22:AJ23 A24:AJ34">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>$J22="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AK34">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL14 A3:AJ21">
-    <cfRule type="expression" dxfId="23" priority="3">
+  <conditionalFormatting sqref="A3:AJ21 AL2:AL14">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$J2="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13355,10 +13555,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BB160"/>
+  <dimension ref="A1:BB161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView showGridLines="0" topLeftCell="A133" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5"/>
@@ -13453,24 +13653,24 @@
       <c r="D2" s="177"/>
       <c r="E2" s="175"/>
       <c r="F2" s="175"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="379"/>
-      <c r="J2" s="379"/>
-      <c r="K2" s="378"/>
-      <c r="L2" s="378"/>
-      <c r="M2" s="379"/>
-      <c r="N2" s="379"/>
-      <c r="O2" s="379"/>
-      <c r="P2" s="378"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="181"/>
       <c r="Q2" s="181"/>
       <c r="R2" s="182"/>
       <c r="S2" s="182"/>
       <c r="T2" s="182"/>
       <c r="U2" s="181"/>
       <c r="V2" s="181"/>
-      <c r="W2" s="378"/>
-      <c r="X2" s="378"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
       <c r="Y2" s="181"/>
       <c r="Z2" s="182"/>
       <c r="AA2" s="182"/>
@@ -13493,76 +13693,76 @@
       <c r="AR2" s="181"/>
     </row>
     <row r="3" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A3" s="363" t="s">
+      <c r="A3" s="354" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="371" t="s">
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="355" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="371"/>
-      <c r="I3" s="371"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="371"/>
-      <c r="L3" s="372" t="s">
+      <c r="H3" s="355"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="356" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="372"/>
-      <c r="N3" s="372"/>
-      <c r="O3" s="372"/>
-      <c r="P3" s="372"/>
-      <c r="Q3" s="380" t="s">
+      <c r="M3" s="356"/>
+      <c r="N3" s="356"/>
+      <c r="O3" s="356"/>
+      <c r="P3" s="356"/>
+      <c r="Q3" s="357" t="s">
         <v>169</v>
       </c>
-      <c r="R3" s="380"/>
-      <c r="S3" s="380"/>
-      <c r="T3" s="380"/>
-      <c r="U3" s="380"/>
-      <c r="V3" s="381"/>
-      <c r="W3" s="364" t="s">
+      <c r="R3" s="357"/>
+      <c r="S3" s="357"/>
+      <c r="T3" s="357"/>
+      <c r="U3" s="357"/>
+      <c r="V3" s="333"/>
+      <c r="W3" s="358" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="364"/>
-      <c r="Y3" s="364"/>
-      <c r="Z3" s="364"/>
-      <c r="AA3" s="364"/>
-      <c r="AB3" s="364"/>
-      <c r="AC3" s="364"/>
-      <c r="AD3" s="364"/>
+      <c r="X3" s="358"/>
+      <c r="Y3" s="358"/>
+      <c r="Z3" s="358"/>
+      <c r="AA3" s="358"/>
+      <c r="AB3" s="358"/>
+      <c r="AC3" s="358"/>
+      <c r="AD3" s="358"/>
       <c r="AE3" s="328"/>
-      <c r="AF3" s="382"/>
-      <c r="AG3" s="382"/>
-      <c r="AH3" s="383"/>
+      <c r="AF3" s="334"/>
+      <c r="AG3" s="334"/>
+      <c r="AH3" s="335"/>
       <c r="AI3" s="185"/>
-      <c r="AJ3" s="367" t="s">
+      <c r="AJ3" s="359" t="s">
         <v>170</v>
       </c>
-      <c r="AK3" s="367"/>
-      <c r="AL3" s="367"/>
-      <c r="AM3" s="367"/>
-      <c r="AN3" s="368" t="s">
+      <c r="AK3" s="359"/>
+      <c r="AL3" s="359"/>
+      <c r="AM3" s="359"/>
+      <c r="AN3" s="360" t="s">
         <v>171</v>
       </c>
-      <c r="AO3" s="368"/>
-      <c r="AP3" s="368"/>
-      <c r="AQ3" s="368"/>
-      <c r="AR3" s="369" t="s">
+      <c r="AO3" s="360"/>
+      <c r="AP3" s="360"/>
+      <c r="AQ3" s="360"/>
+      <c r="AR3" s="361" t="s">
         <v>65</v>
       </c>
-      <c r="AW3" s="367" t="s">
+      <c r="AW3" s="359" t="s">
         <v>172</v>
       </c>
-      <c r="AX3" s="367"/>
-      <c r="AY3" s="367"/>
-      <c r="AZ3" s="370" t="s">
+      <c r="AX3" s="359"/>
+      <c r="AY3" s="359"/>
+      <c r="AZ3" s="362" t="s">
         <v>173</v>
       </c>
-      <c r="BA3" s="370"/>
-      <c r="BB3" s="370"/>
+      <c r="BA3" s="362"/>
+      <c r="BB3" s="362"/>
     </row>
     <row r="4" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="A4" s="259" t="s">
@@ -13655,7 +13855,7 @@
       <c r="AD4" s="200" t="s">
         <v>199</v>
       </c>
-      <c r="AE4" s="375" t="s">
+      <c r="AE4" s="330" t="s">
         <v>428</v>
       </c>
       <c r="AF4" s="201" t="s">
@@ -13664,7 +13864,7 @@
       <c r="AG4" s="202" t="s">
         <v>201</v>
       </c>
-      <c r="AH4" s="384" t="s">
+      <c r="AH4" s="336" t="s">
         <v>202</v>
       </c>
       <c r="AI4" s="185"/>
@@ -13692,7 +13892,7 @@
       <c r="AQ4" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="369"/>
+      <c r="AR4" s="361"/>
       <c r="AW4" s="191" t="s">
         <v>203</v>
       </c>
@@ -13713,7 +13913,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A5" s="385">
+      <c r="A5" s="337">
         <v>1</v>
       </c>
       <c r="B5" s="208">
@@ -13801,7 +14001,7 @@
       </c>
       <c r="AC5" s="213"/>
       <c r="AD5" s="221"/>
-      <c r="AE5" s="376">
+      <c r="AE5" s="331">
         <f t="shared" ref="AE5:AE21" si="0">IF(COUNT(AC5),0,Y5)</f>
         <v>41238400</v>
       </c>
@@ -13861,7 +14061,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="385">
+      <c r="A6" s="337">
         <v>2</v>
       </c>
       <c r="B6" s="208">
@@ -13947,7 +14147,7 @@
       </c>
       <c r="AC6" s="213"/>
       <c r="AD6" s="221"/>
-      <c r="AE6" s="376">
+      <c r="AE6" s="331">
         <f t="shared" si="0"/>
         <v>38239400</v>
       </c>
@@ -14008,7 +14208,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="385">
+      <c r="A7" s="337">
         <v>3</v>
       </c>
       <c r="B7" s="208">
@@ -14102,7 +14302,7 @@
       </c>
       <c r="AC7" s="213"/>
       <c r="AD7" s="221"/>
-      <c r="AE7" s="376">
+      <c r="AE7" s="331">
         <f t="shared" si="0"/>
         <v>6000000</v>
       </c>
@@ -14163,7 +14363,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="385">
+      <c r="A8" s="337">
         <v>4</v>
       </c>
       <c r="B8" s="230">
@@ -14251,7 +14451,7 @@
       </c>
       <c r="AC8" s="235"/>
       <c r="AD8" s="241"/>
-      <c r="AE8" s="377">
+      <c r="AE8" s="332">
         <f t="shared" si="0"/>
         <v>14390000</v>
       </c>
@@ -14260,7 +14460,7 @@
         <f>(K8+P8+표1_3[[#This Row],[미수금액2]])-AH8</f>
         <v>14390000</v>
       </c>
-      <c r="AH8" s="386">
+      <c r="AH8" s="338">
         <f>SUM(IF(COUNTBLANK(H8),G8,0),IF(COUNTBLANK(M8),L8,0),IF(COUNTBLANK(AA8),Y8,0))</f>
         <v>0</v>
       </c>
@@ -14310,7 +14510,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="385">
+      <c r="A9" s="337">
         <v>5</v>
       </c>
       <c r="B9" s="208">
@@ -14393,7 +14593,7 @@
       </c>
       <c r="AC9" s="213"/>
       <c r="AD9" s="221"/>
-      <c r="AE9" s="376">
+      <c r="AE9" s="331">
         <f t="shared" si="0"/>
         <v>14598800</v>
       </c>
@@ -14454,7 +14654,7 @@
       </c>
     </row>
     <row r="10" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A10" s="385">
+      <c r="A10" s="337">
         <v>6</v>
       </c>
       <c r="B10" s="208">
@@ -14514,7 +14714,7 @@
       </c>
       <c r="AC10" s="213"/>
       <c r="AD10" s="221"/>
-      <c r="AE10" s="376">
+      <c r="AE10" s="331">
         <f t="shared" si="0"/>
         <v>6450000</v>
       </c>
@@ -14570,7 +14770,7 @@
       </c>
     </row>
     <row r="11" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="385">
+      <c r="A11" s="337">
         <v>7</v>
       </c>
       <c r="B11" s="208">
@@ -14651,7 +14851,7 @@
       </c>
       <c r="AC11" s="213"/>
       <c r="AD11" s="221"/>
-      <c r="AE11" s="376">
+      <c r="AE11" s="331">
         <f t="shared" si="0"/>
         <v>46991600</v>
       </c>
@@ -14708,7 +14908,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A12" s="385">
+      <c r="A12" s="337">
         <v>8</v>
       </c>
       <c r="B12" s="208">
@@ -14794,7 +14994,7 @@
       </c>
       <c r="AC12" s="213"/>
       <c r="AD12" s="221"/>
-      <c r="AE12" s="376">
+      <c r="AE12" s="331">
         <f t="shared" si="0"/>
         <v>114453000</v>
       </c>
@@ -14851,49 +15051,19 @@
       </c>
     </row>
     <row r="13" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A13" s="387"/>
-      <c r="B13" s="388"/>
-      <c r="C13" s="388"/>
-      <c r="D13" s="388"/>
-      <c r="E13" s="388"/>
-      <c r="F13" s="388"/>
-      <c r="G13" s="388"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="388"/>
-      <c r="J13" s="388"/>
-      <c r="K13" s="388"/>
-      <c r="L13" s="388"/>
-      <c r="M13" s="388"/>
-      <c r="N13" s="388"/>
-      <c r="O13" s="388"/>
-      <c r="P13" s="388"/>
-      <c r="Q13" s="388"/>
-      <c r="R13" s="388"/>
-      <c r="S13" s="388"/>
-      <c r="T13" s="388"/>
-      <c r="U13" s="388"/>
-      <c r="V13" s="388"/>
-      <c r="W13" s="388"/>
-      <c r="X13" s="388"/>
-      <c r="Y13" s="388"/>
-      <c r="Z13" s="388"/>
-      <c r="AA13" s="388"/>
-      <c r="AB13" s="388"/>
-      <c r="AC13" s="388"/>
-      <c r="AD13" s="388"/>
-      <c r="AE13" s="389">
+      <c r="A13" s="339"/>
+      <c r="AE13" s="340">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="388"/>
       <c r="AG13" s="215">
         <f>(K13+P13+표1_3[[#This Row],[미수금액2]])-AH13</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="390"/>
+      <c r="AH13" s="341"/>
     </row>
     <row r="14" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="385">
+      <c r="A14" s="337">
         <v>1</v>
       </c>
       <c r="B14" s="208">
@@ -14977,7 +15147,7 @@
       <c r="AB14" s="213"/>
       <c r="AC14" s="213"/>
       <c r="AD14" s="221"/>
-      <c r="AE14" s="376">
+      <c r="AE14" s="331">
         <f t="shared" si="0"/>
         <v>104684000</v>
       </c>
@@ -15028,7 +15198,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="385">
+      <c r="A15" s="337">
         <v>2</v>
       </c>
       <c r="B15" s="208">
@@ -15101,7 +15271,7 @@
       <c r="AB15" s="213"/>
       <c r="AC15" s="213"/>
       <c r="AD15" s="221"/>
-      <c r="AE15" s="376">
+      <c r="AE15" s="331">
         <f t="shared" si="0"/>
         <v>72541200</v>
       </c>
@@ -15152,7 +15322,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="385">
+      <c r="A16" s="337">
         <v>3</v>
       </c>
       <c r="B16" s="208">
@@ -15226,7 +15396,7 @@
       <c r="AB16" s="213"/>
       <c r="AC16" s="213"/>
       <c r="AD16" s="221"/>
-      <c r="AE16" s="376">
+      <c r="AE16" s="331">
         <f t="shared" si="0"/>
         <v>119050400</v>
       </c>
@@ -15279,7 +15449,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="385">
+      <c r="A17" s="337">
         <v>4</v>
       </c>
       <c r="B17" s="230">
@@ -15355,7 +15525,7 @@
       <c r="AB17" s="235"/>
       <c r="AC17" s="235"/>
       <c r="AD17" s="241"/>
-      <c r="AE17" s="377">
+      <c r="AE17" s="332">
         <f t="shared" si="0"/>
         <v>109031200</v>
       </c>
@@ -15406,7 +15576,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="385">
+      <c r="A18" s="337">
         <v>5</v>
       </c>
       <c r="B18" s="208">
@@ -15478,7 +15648,7 @@
       <c r="AB18" s="213"/>
       <c r="AC18" s="213"/>
       <c r="AD18" s="221"/>
-      <c r="AE18" s="376">
+      <c r="AE18" s="331">
         <f t="shared" si="0"/>
         <v>53520000</v>
       </c>
@@ -15521,7 +15691,7 @@
       </c>
     </row>
     <row r="19" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A19" s="385">
+      <c r="A19" s="337">
         <v>6</v>
       </c>
       <c r="B19" s="230">
@@ -15597,7 +15767,7 @@
       <c r="AB19" s="235"/>
       <c r="AC19" s="235"/>
       <c r="AD19" s="241"/>
-      <c r="AE19" s="377">
+      <c r="AE19" s="332">
         <f t="shared" si="0"/>
         <v>23835400</v>
       </c>
@@ -15648,7 +15818,7 @@
       </c>
     </row>
     <row r="20" spans="1:54" s="186" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A20" s="385">
+      <c r="A20" s="337">
         <v>7</v>
       </c>
       <c r="B20" s="208">
@@ -15724,7 +15894,7 @@
       <c r="AB20" s="213"/>
       <c r="AC20" s="213"/>
       <c r="AD20" s="221"/>
-      <c r="AE20" s="376">
+      <c r="AE20" s="331">
         <f t="shared" si="0"/>
         <v>7378000</v>
       </c>
@@ -15784,7 +15954,7 @@
       <c r="C21" s="276" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="391" t="s">
+      <c r="D21" s="342" t="s">
         <v>245</v>
       </c>
       <c r="E21" s="276">
@@ -15794,7 +15964,7 @@
         <f>E21-AL21</f>
         <v>10336000</v>
       </c>
-      <c r="G21" s="392"/>
+      <c r="G21" s="343"/>
       <c r="H21" s="278"/>
       <c r="I21" s="278"/>
       <c r="J21" s="278"/>
@@ -15810,7 +15980,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="392"/>
+      <c r="Q21" s="343"/>
       <c r="R21" s="278"/>
       <c r="S21" s="278"/>
       <c r="T21" s="278"/>
@@ -15837,8 +16007,8 @@
       <c r="AA21" s="278"/>
       <c r="AB21" s="278"/>
       <c r="AC21" s="278"/>
-      <c r="AD21" s="393"/>
-      <c r="AE21" s="394">
+      <c r="AD21" s="344"/>
+      <c r="AE21" s="345">
         <f t="shared" si="0"/>
         <v>10336000</v>
       </c>
@@ -15847,7 +16017,7 @@
         <f>(K21+P21+표1_3[[#This Row],[미수금액2]])-AH21</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="395">
+      <c r="AH21" s="346">
         <f t="shared" si="6"/>
         <v>10336000</v>
       </c>
@@ -15889,38 +16059,38 @@
       </c>
     </row>
     <row r="24" spans="1:54" s="185" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A24" s="363" t="s">
+      <c r="A24" s="354" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="363"/>
-      <c r="C24" s="363"/>
-      <c r="D24" s="363"/>
-      <c r="E24" s="363"/>
-      <c r="F24" s="364" t="s">
+      <c r="B24" s="354"/>
+      <c r="C24" s="354"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="354"/>
+      <c r="F24" s="358" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="364"/>
-      <c r="H24" s="364"/>
-      <c r="I24" s="364"/>
-      <c r="J24" s="364"/>
-      <c r="K24" s="365" t="s">
+      <c r="G24" s="358"/>
+      <c r="H24" s="358"/>
+      <c r="I24" s="358"/>
+      <c r="J24" s="358"/>
+      <c r="K24" s="363" t="s">
         <v>249</v>
       </c>
-      <c r="L24" s="365"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="365"/>
-      <c r="O24" s="365"/>
-      <c r="P24" s="365" t="s">
+      <c r="L24" s="363"/>
+      <c r="M24" s="363"/>
+      <c r="N24" s="363"/>
+      <c r="O24" s="363"/>
+      <c r="P24" s="363" t="s">
         <v>250</v>
       </c>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="366" t="s">
+      <c r="Q24" s="363"/>
+      <c r="R24" s="364" t="s">
         <v>115</v>
       </c>
-      <c r="S24" s="366"/>
-      <c r="T24" s="366"/>
-      <c r="U24" s="366"/>
-      <c r="V24" s="366"/>
+      <c r="S24" s="364"/>
+      <c r="T24" s="364"/>
+      <c r="U24" s="364"/>
+      <c r="V24" s="364"/>
     </row>
     <row r="25" spans="1:54" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A25" s="259" t="s">
@@ -15974,11 +16144,11 @@
       <c r="Q25" s="262" t="s">
         <v>254</v>
       </c>
-      <c r="R25" s="366"/>
-      <c r="S25" s="366"/>
-      <c r="T25" s="366"/>
-      <c r="U25" s="366"/>
-      <c r="V25" s="366"/>
+      <c r="R25" s="364"/>
+      <c r="S25" s="364"/>
+      <c r="T25" s="364"/>
+      <c r="U25" s="364"/>
+      <c r="V25" s="364"/>
     </row>
     <row r="26" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A26" s="263">
@@ -16026,11 +16196,11 @@
         <v>1360000</v>
       </c>
       <c r="Q26" s="217"/>
-      <c r="R26" s="362"/>
-      <c r="S26" s="362"/>
-      <c r="T26" s="362"/>
-      <c r="U26" s="362"/>
-      <c r="V26" s="362"/>
+      <c r="R26" s="365"/>
+      <c r="S26" s="365"/>
+      <c r="T26" s="365"/>
+      <c r="U26" s="365"/>
+      <c r="V26" s="365"/>
     </row>
     <row r="27" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A27" s="223">
@@ -16079,11 +16249,11 @@
         <v>1132000</v>
       </c>
       <c r="Q27" s="217"/>
-      <c r="R27" s="357"/>
-      <c r="S27" s="357"/>
-      <c r="T27" s="357"/>
-      <c r="U27" s="357"/>
-      <c r="V27" s="357"/>
+      <c r="R27" s="366"/>
+      <c r="S27" s="366"/>
+      <c r="T27" s="366"/>
+      <c r="U27" s="366"/>
+      <c r="V27" s="366"/>
     </row>
     <row r="28" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A28" s="223">
@@ -16132,11 +16302,11 @@
         <v>1076000</v>
       </c>
       <c r="Q28" s="217"/>
-      <c r="R28" s="357"/>
-      <c r="S28" s="357"/>
-      <c r="T28" s="357"/>
-      <c r="U28" s="357"/>
-      <c r="V28" s="357"/>
+      <c r="R28" s="366"/>
+      <c r="S28" s="366"/>
+      <c r="T28" s="366"/>
+      <c r="U28" s="366"/>
+      <c r="V28" s="366"/>
     </row>
     <row r="29" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A29" s="223">
@@ -16183,13 +16353,13 @@
         <v>583000</v>
       </c>
       <c r="Q29" s="217"/>
-      <c r="R29" s="356" t="s">
+      <c r="R29" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="S29" s="356"/>
-      <c r="T29" s="356"/>
-      <c r="U29" s="356"/>
-      <c r="V29" s="356"/>
+      <c r="S29" s="367"/>
+      <c r="T29" s="367"/>
+      <c r="U29" s="367"/>
+      <c r="V29" s="367"/>
     </row>
     <row r="30" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A30" s="223">
@@ -16238,11 +16408,11 @@
         <v>1074000</v>
       </c>
       <c r="Q30" s="217"/>
-      <c r="R30" s="357"/>
-      <c r="S30" s="357"/>
-      <c r="T30" s="357"/>
-      <c r="U30" s="357"/>
-      <c r="V30" s="357"/>
+      <c r="R30" s="366"/>
+      <c r="S30" s="366"/>
+      <c r="T30" s="366"/>
+      <c r="U30" s="366"/>
+      <c r="V30" s="366"/>
     </row>
     <row r="31" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A31" s="223">
@@ -16289,11 +16459,11 @@
         <v>400000</v>
       </c>
       <c r="Q31" s="217"/>
-      <c r="R31" s="357"/>
-      <c r="S31" s="357"/>
-      <c r="T31" s="357"/>
-      <c r="U31" s="357"/>
-      <c r="V31" s="357"/>
+      <c r="R31" s="366"/>
+      <c r="S31" s="366"/>
+      <c r="T31" s="366"/>
+      <c r="U31" s="366"/>
+      <c r="V31" s="366"/>
     </row>
     <row r="32" spans="1:54" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A32" s="223">
@@ -16340,13 +16510,13 @@
         <v>837000</v>
       </c>
       <c r="Q32" s="217"/>
-      <c r="R32" s="356" t="s">
+      <c r="R32" s="367" t="s">
         <v>267</v>
       </c>
-      <c r="S32" s="356"/>
-      <c r="T32" s="356"/>
-      <c r="U32" s="356"/>
-      <c r="V32" s="356"/>
+      <c r="S32" s="367"/>
+      <c r="T32" s="367"/>
+      <c r="U32" s="367"/>
+      <c r="V32" s="367"/>
     </row>
     <row r="33" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A33" s="223">
@@ -16393,13 +16563,13 @@
         <v>143500</v>
       </c>
       <c r="Q33" s="217"/>
-      <c r="R33" s="356" t="s">
+      <c r="R33" s="367" t="s">
         <v>269</v>
       </c>
-      <c r="S33" s="356"/>
-      <c r="T33" s="356"/>
-      <c r="U33" s="356"/>
-      <c r="V33" s="356"/>
+      <c r="S33" s="367"/>
+      <c r="T33" s="367"/>
+      <c r="U33" s="367"/>
+      <c r="V33" s="367"/>
     </row>
     <row r="34" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A34" s="223">
@@ -16448,13 +16618,13 @@
         <v>1700000</v>
       </c>
       <c r="Q34" s="217"/>
-      <c r="R34" s="356" t="s">
+      <c r="R34" s="367" t="s">
         <v>272</v>
       </c>
-      <c r="S34" s="356"/>
-      <c r="T34" s="356"/>
-      <c r="U34" s="356"/>
-      <c r="V34" s="356"/>
+      <c r="S34" s="367"/>
+      <c r="T34" s="367"/>
+      <c r="U34" s="367"/>
+      <c r="V34" s="367"/>
     </row>
     <row r="35" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A35" s="223">
@@ -16503,11 +16673,11 @@
         <v>999000</v>
       </c>
       <c r="Q35" s="217"/>
-      <c r="R35" s="357"/>
-      <c r="S35" s="357"/>
-      <c r="T35" s="357"/>
-      <c r="U35" s="357"/>
-      <c r="V35" s="357"/>
+      <c r="R35" s="366"/>
+      <c r="S35" s="366"/>
+      <c r="T35" s="366"/>
+      <c r="U35" s="366"/>
+      <c r="V35" s="366"/>
     </row>
     <row r="36" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A36" s="223">
@@ -16556,11 +16726,11 @@
         <v>3295000</v>
       </c>
       <c r="Q36" s="217"/>
-      <c r="R36" s="357"/>
-      <c r="S36" s="357"/>
-      <c r="T36" s="357"/>
-      <c r="U36" s="357"/>
-      <c r="V36" s="357"/>
+      <c r="R36" s="366"/>
+      <c r="S36" s="366"/>
+      <c r="T36" s="366"/>
+      <c r="U36" s="366"/>
+      <c r="V36" s="366"/>
     </row>
     <row r="37" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A37" s="223">
@@ -16609,13 +16779,13 @@
         <v>794850</v>
       </c>
       <c r="Q37" s="217"/>
-      <c r="R37" s="356" t="s">
+      <c r="R37" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="S37" s="356"/>
-      <c r="T37" s="356"/>
-      <c r="U37" s="356"/>
-      <c r="V37" s="356"/>
+      <c r="S37" s="367"/>
+      <c r="T37" s="367"/>
+      <c r="U37" s="367"/>
+      <c r="V37" s="367"/>
     </row>
     <row r="38" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A38" s="223">
@@ -16666,11 +16836,11 @@
       <c r="Q38" s="217">
         <v>0</v>
       </c>
-      <c r="R38" s="357"/>
-      <c r="S38" s="357"/>
-      <c r="T38" s="357"/>
-      <c r="U38" s="357"/>
-      <c r="V38" s="357"/>
+      <c r="R38" s="366"/>
+      <c r="S38" s="366"/>
+      <c r="T38" s="366"/>
+      <c r="U38" s="366"/>
+      <c r="V38" s="366"/>
     </row>
     <row r="39" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A39" s="223">
@@ -16717,13 +16887,13 @@
         <v>174000</v>
       </c>
       <c r="Q39" s="239"/>
-      <c r="R39" s="356" t="s">
+      <c r="R39" s="367" t="s">
         <v>281</v>
       </c>
-      <c r="S39" s="356"/>
-      <c r="T39" s="356"/>
-      <c r="U39" s="356"/>
-      <c r="V39" s="356"/>
+      <c r="S39" s="367"/>
+      <c r="T39" s="367"/>
+      <c r="U39" s="367"/>
+      <c r="V39" s="367"/>
     </row>
     <row r="40" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A40" s="223">
@@ -16775,11 +16945,11 @@
         <f>IF(COUNT(O40),0,L40)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="357"/>
-      <c r="S40" s="357"/>
-      <c r="T40" s="357"/>
-      <c r="U40" s="357"/>
-      <c r="V40" s="357"/>
+      <c r="R40" s="366"/>
+      <c r="S40" s="366"/>
+      <c r="T40" s="366"/>
+      <c r="U40" s="366"/>
+      <c r="V40" s="366"/>
     </row>
     <row r="41" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A41" s="223">
@@ -16831,11 +17001,11 @@
         <f>IF(COUNT(O41),0,L41)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="357"/>
-      <c r="S41" s="357"/>
-      <c r="T41" s="357"/>
-      <c r="U41" s="357"/>
-      <c r="V41" s="357"/>
+      <c r="R41" s="366"/>
+      <c r="S41" s="366"/>
+      <c r="T41" s="366"/>
+      <c r="U41" s="366"/>
+      <c r="V41" s="366"/>
     </row>
     <row r="42" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A42" s="223">
@@ -16887,13 +17057,13 @@
         <f>IF(COUNT(O42),0,L42)</f>
         <v>0</v>
       </c>
-      <c r="R42" s="356" t="s">
+      <c r="R42" s="367" t="s">
         <v>286</v>
       </c>
-      <c r="S42" s="356"/>
-      <c r="T42" s="356"/>
-      <c r="U42" s="356"/>
-      <c r="V42" s="356"/>
+      <c r="S42" s="367"/>
+      <c r="T42" s="367"/>
+      <c r="U42" s="367"/>
+      <c r="V42" s="367"/>
     </row>
     <row r="43" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A43" s="223">
@@ -16942,13 +17112,13 @@
         <v>481300</v>
       </c>
       <c r="Q43" s="239"/>
-      <c r="R43" s="356" t="s">
+      <c r="R43" s="367" t="s">
         <v>288</v>
       </c>
-      <c r="S43" s="356"/>
-      <c r="T43" s="356"/>
-      <c r="U43" s="356"/>
-      <c r="V43" s="356"/>
+      <c r="S43" s="367"/>
+      <c r="T43" s="367"/>
+      <c r="U43" s="367"/>
+      <c r="V43" s="367"/>
     </row>
     <row r="44" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A44" s="223">
@@ -16997,11 +17167,11 @@
         <v>1789500</v>
       </c>
       <c r="Q44" s="239"/>
-      <c r="R44" s="357"/>
-      <c r="S44" s="357"/>
-      <c r="T44" s="357"/>
-      <c r="U44" s="357"/>
-      <c r="V44" s="357"/>
+      <c r="R44" s="366"/>
+      <c r="S44" s="366"/>
+      <c r="T44" s="366"/>
+      <c r="U44" s="366"/>
+      <c r="V44" s="366"/>
     </row>
     <row r="45" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A45" s="223">
@@ -17050,13 +17220,13 @@
         <v>2425500</v>
       </c>
       <c r="Q45" s="239"/>
-      <c r="R45" s="356" t="s">
+      <c r="R45" s="367" t="s">
         <v>292</v>
       </c>
-      <c r="S45" s="356"/>
-      <c r="T45" s="356"/>
-      <c r="U45" s="356"/>
-      <c r="V45" s="356"/>
+      <c r="S45" s="367"/>
+      <c r="T45" s="367"/>
+      <c r="U45" s="367"/>
+      <c r="V45" s="367"/>
     </row>
     <row r="46" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A46" s="223">
@@ -17108,13 +17278,13 @@
         <f>IF(COUNT(O46),0,L46)</f>
         <v>0</v>
       </c>
-      <c r="R46" s="356" t="s">
+      <c r="R46" s="367" t="s">
         <v>294</v>
       </c>
-      <c r="S46" s="356"/>
-      <c r="T46" s="356"/>
-      <c r="U46" s="356"/>
-      <c r="V46" s="356"/>
+      <c r="S46" s="367"/>
+      <c r="T46" s="367"/>
+      <c r="U46" s="367"/>
+      <c r="V46" s="367"/>
     </row>
     <row r="47" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A47" s="223">
@@ -17163,13 +17333,13 @@
         <f>J47-P47</f>
         <v>1632000</v>
       </c>
-      <c r="R47" s="356" t="s">
+      <c r="R47" s="367" t="s">
         <v>297</v>
       </c>
-      <c r="S47" s="356"/>
-      <c r="T47" s="356"/>
-      <c r="U47" s="356"/>
-      <c r="V47" s="356"/>
+      <c r="S47" s="367"/>
+      <c r="T47" s="367"/>
+      <c r="U47" s="367"/>
+      <c r="V47" s="367"/>
     </row>
     <row r="48" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A48" s="223">
@@ -17218,13 +17388,13 @@
         <f>J48-P48</f>
         <v>5380000</v>
       </c>
-      <c r="R48" s="356" t="s">
+      <c r="R48" s="367" t="s">
         <v>299</v>
       </c>
-      <c r="S48" s="356"/>
-      <c r="T48" s="356"/>
-      <c r="U48" s="356"/>
-      <c r="V48" s="356"/>
+      <c r="S48" s="367"/>
+      <c r="T48" s="367"/>
+      <c r="U48" s="367"/>
+      <c r="V48" s="367"/>
     </row>
     <row r="49" spans="1:22" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="A49" s="223">
@@ -17273,13 +17443,13 @@
         <f>J49-P49</f>
         <v>765000</v>
       </c>
-      <c r="R49" s="356" t="s">
+      <c r="R49" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="S49" s="356"/>
-      <c r="T49" s="356"/>
-      <c r="U49" s="356"/>
-      <c r="V49" s="356"/>
+      <c r="S49" s="367"/>
+      <c r="T49" s="367"/>
+      <c r="U49" s="367"/>
+      <c r="V49" s="367"/>
     </row>
     <row r="50" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A50" s="223">
@@ -17328,13 +17498,13 @@
         <f>J50-P50</f>
         <v>2738900</v>
       </c>
-      <c r="R50" s="356" t="s">
+      <c r="R50" s="367" t="s">
         <v>303</v>
       </c>
-      <c r="S50" s="356"/>
-      <c r="T50" s="356"/>
-      <c r="U50" s="356"/>
-      <c r="V50" s="356"/>
+      <c r="S50" s="367"/>
+      <c r="T50" s="367"/>
+      <c r="U50" s="367"/>
+      <c r="V50" s="367"/>
     </row>
     <row r="51" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A51" s="223">
@@ -17380,13 +17550,13 @@
         <f>표6[[#This Row],[미수금액]]</f>
         <v>1523400</v>
       </c>
-      <c r="R51" s="356" t="s">
+      <c r="R51" s="367" t="s">
         <v>305</v>
       </c>
-      <c r="S51" s="356"/>
-      <c r="T51" s="356"/>
-      <c r="U51" s="356"/>
-      <c r="V51" s="356"/>
+      <c r="S51" s="367"/>
+      <c r="T51" s="367"/>
+      <c r="U51" s="367"/>
+      <c r="V51" s="367"/>
     </row>
     <row r="52" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A52" s="223">
@@ -17435,13 +17605,13 @@
         <f t="shared" ref="Q52:Q61" si="11">J52-P52</f>
         <v>1648500</v>
       </c>
-      <c r="R52" s="356" t="s">
+      <c r="R52" s="367" t="s">
         <v>307</v>
       </c>
-      <c r="S52" s="356"/>
-      <c r="T52" s="356"/>
-      <c r="U52" s="356"/>
-      <c r="V52" s="356"/>
+      <c r="S52" s="367"/>
+      <c r="T52" s="367"/>
+      <c r="U52" s="367"/>
+      <c r="V52" s="367"/>
     </row>
     <row r="53" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A53" s="223">
@@ -17490,11 +17660,11 @@
         <f t="shared" si="11"/>
         <v>2625000</v>
       </c>
-      <c r="R53" s="357"/>
-      <c r="S53" s="357"/>
-      <c r="T53" s="357"/>
-      <c r="U53" s="357"/>
-      <c r="V53" s="357"/>
+      <c r="R53" s="366"/>
+      <c r="S53" s="366"/>
+      <c r="T53" s="366"/>
+      <c r="U53" s="366"/>
+      <c r="V53" s="366"/>
     </row>
     <row r="54" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A54" s="223">
@@ -17543,11 +17713,11 @@
         <f t="shared" si="11"/>
         <v>125000</v>
       </c>
-      <c r="R54" s="357"/>
-      <c r="S54" s="357"/>
-      <c r="T54" s="357"/>
-      <c r="U54" s="357"/>
-      <c r="V54" s="357"/>
+      <c r="R54" s="366"/>
+      <c r="S54" s="366"/>
+      <c r="T54" s="366"/>
+      <c r="U54" s="366"/>
+      <c r="V54" s="366"/>
     </row>
     <row r="55" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A55" s="223">
@@ -17596,11 +17766,11 @@
         <f t="shared" si="11"/>
         <v>495000</v>
       </c>
-      <c r="R55" s="357"/>
-      <c r="S55" s="357"/>
-      <c r="T55" s="357"/>
-      <c r="U55" s="357"/>
-      <c r="V55" s="357"/>
+      <c r="R55" s="366"/>
+      <c r="S55" s="366"/>
+      <c r="T55" s="366"/>
+      <c r="U55" s="366"/>
+      <c r="V55" s="366"/>
     </row>
     <row r="56" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A56" s="223">
@@ -17649,13 +17819,13 @@
         <f t="shared" si="11"/>
         <v>485000</v>
       </c>
-      <c r="R56" s="356" t="s">
+      <c r="R56" s="367" t="s">
         <v>314</v>
       </c>
-      <c r="S56" s="356"/>
-      <c r="T56" s="356"/>
-      <c r="U56" s="356"/>
-      <c r="V56" s="356"/>
+      <c r="S56" s="367"/>
+      <c r="T56" s="367"/>
+      <c r="U56" s="367"/>
+      <c r="V56" s="367"/>
     </row>
     <row r="57" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A57" s="223">
@@ -17704,13 +17874,13 @@
         <f t="shared" si="11"/>
         <v>662500</v>
       </c>
-      <c r="R57" s="356" t="s">
+      <c r="R57" s="367" t="s">
         <v>317</v>
       </c>
-      <c r="S57" s="356"/>
-      <c r="T57" s="356"/>
-      <c r="U57" s="356"/>
-      <c r="V57" s="356"/>
+      <c r="S57" s="367"/>
+      <c r="T57" s="367"/>
+      <c r="U57" s="367"/>
+      <c r="V57" s="367"/>
     </row>
     <row r="58" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A58" s="223">
@@ -17760,13 +17930,13 @@
         <f t="shared" si="11"/>
         <v>42350</v>
       </c>
-      <c r="R58" s="356" t="s">
+      <c r="R58" s="367" t="s">
         <v>320</v>
       </c>
-      <c r="S58" s="356"/>
-      <c r="T58" s="356"/>
-      <c r="U58" s="356"/>
-      <c r="V58" s="356"/>
+      <c r="S58" s="367"/>
+      <c r="T58" s="367"/>
+      <c r="U58" s="367"/>
+      <c r="V58" s="367"/>
     </row>
     <row r="59" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A59" s="223">
@@ -17815,13 +17985,13 @@
         <f t="shared" si="11"/>
         <v>3537700</v>
       </c>
-      <c r="R59" s="356" t="s">
+      <c r="R59" s="367" t="s">
         <v>323</v>
       </c>
-      <c r="S59" s="356"/>
-      <c r="T59" s="356"/>
-      <c r="U59" s="356"/>
-      <c r="V59" s="356"/>
+      <c r="S59" s="367"/>
+      <c r="T59" s="367"/>
+      <c r="U59" s="367"/>
+      <c r="V59" s="367"/>
     </row>
     <row r="60" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A60" s="223">
@@ -17870,13 +18040,13 @@
         <f t="shared" si="11"/>
         <v>2200000</v>
       </c>
-      <c r="R60" s="356" t="s">
+      <c r="R60" s="367" t="s">
         <v>325</v>
       </c>
-      <c r="S60" s="356"/>
-      <c r="T60" s="356"/>
-      <c r="U60" s="356"/>
-      <c r="V60" s="356"/>
+      <c r="S60" s="367"/>
+      <c r="T60" s="367"/>
+      <c r="U60" s="367"/>
+      <c r="V60" s="367"/>
     </row>
     <row r="61" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A61" s="223">
@@ -17925,13 +18095,13 @@
         <f t="shared" si="11"/>
         <v>605000</v>
       </c>
-      <c r="R61" s="356" t="s">
+      <c r="R61" s="367" t="s">
         <v>327</v>
       </c>
-      <c r="S61" s="356"/>
-      <c r="T61" s="356"/>
-      <c r="U61" s="356"/>
-      <c r="V61" s="356"/>
+      <c r="S61" s="367"/>
+      <c r="T61" s="367"/>
+      <c r="U61" s="367"/>
+      <c r="V61" s="367"/>
     </row>
     <row r="62" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A62" s="223">
@@ -17980,11 +18150,11 @@
         <f>O62-P62</f>
         <v>5397500</v>
       </c>
-      <c r="R62" s="357"/>
-      <c r="S62" s="357"/>
-      <c r="T62" s="357"/>
-      <c r="U62" s="357"/>
-      <c r="V62" s="357"/>
+      <c r="R62" s="366"/>
+      <c r="S62" s="366"/>
+      <c r="T62" s="366"/>
+      <c r="U62" s="366"/>
+      <c r="V62" s="366"/>
     </row>
     <row r="63" spans="1:22" s="185" customFormat="1" ht="24.75" customHeight="1">
       <c r="A63" s="274">
@@ -18033,51 +18203,51 @@
         <f>IF(COUNT(O63),0,L63)</f>
         <v>0</v>
       </c>
-      <c r="R63" s="358"/>
-      <c r="S63" s="358"/>
-      <c r="T63" s="358"/>
-      <c r="U63" s="358"/>
-      <c r="V63" s="358"/>
+      <c r="R63" s="368"/>
+      <c r="S63" s="368"/>
+      <c r="T63" s="368"/>
+      <c r="U63" s="368"/>
+      <c r="V63" s="368"/>
     </row>
     <row r="64" spans="1:22" s="186" customFormat="1" ht="24.75" customHeight="1"/>
     <row r="65" spans="1:31" s="186" customFormat="1" ht="24.75" customHeight="1"/>
     <row r="66" spans="1:31" s="185" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A66" s="359" t="s">
+      <c r="A66" s="369" t="s">
         <v>331</v>
       </c>
-      <c r="B66" s="359"/>
-      <c r="C66" s="359"/>
-      <c r="D66" s="359"/>
-      <c r="E66" s="359"/>
-      <c r="F66" s="359"/>
-      <c r="G66" s="360" t="s">
+      <c r="B66" s="369"/>
+      <c r="C66" s="369"/>
+      <c r="D66" s="369"/>
+      <c r="E66" s="369"/>
+      <c r="F66" s="369"/>
+      <c r="G66" s="370" t="s">
         <v>332</v>
       </c>
-      <c r="H66" s="360"/>
-      <c r="I66" s="360"/>
-      <c r="J66" s="360"/>
-      <c r="K66" s="360"/>
-      <c r="L66" s="361" t="s">
+      <c r="H66" s="370"/>
+      <c r="I66" s="370"/>
+      <c r="J66" s="370"/>
+      <c r="K66" s="370"/>
+      <c r="L66" s="371" t="s">
         <v>333</v>
       </c>
-      <c r="M66" s="361"/>
-      <c r="N66" s="361"/>
-      <c r="O66" s="361"/>
-      <c r="P66" s="361"/>
-      <c r="Q66" s="361"/>
-      <c r="R66" s="361"/>
-      <c r="S66" s="361"/>
-      <c r="T66" s="361"/>
-      <c r="U66" s="361"/>
-      <c r="V66" s="361"/>
-      <c r="W66" s="352" t="s">
+      <c r="M66" s="371"/>
+      <c r="N66" s="371"/>
+      <c r="O66" s="371"/>
+      <c r="P66" s="371"/>
+      <c r="Q66" s="371"/>
+      <c r="R66" s="371"/>
+      <c r="S66" s="371"/>
+      <c r="T66" s="371"/>
+      <c r="U66" s="371"/>
+      <c r="V66" s="371"/>
+      <c r="W66" s="372" t="s">
         <v>334</v>
       </c>
-      <c r="X66" s="352"/>
-      <c r="Y66" s="352"/>
-      <c r="Z66" s="352"/>
-      <c r="AA66" s="352"/>
-      <c r="AB66" s="352"/>
+      <c r="X66" s="372"/>
+      <c r="Y66" s="372"/>
+      <c r="Z66" s="372"/>
+      <c r="AA66" s="372"/>
+      <c r="AB66" s="372"/>
       <c r="AC66" s="283"/>
       <c r="AD66" s="283"/>
       <c r="AE66" s="283"/>
@@ -18101,25 +18271,25 @@
       <c r="F67" s="190" t="s">
         <v>336</v>
       </c>
-      <c r="G67" s="353" t="s">
+      <c r="G67" s="373" t="s">
         <v>337</v>
       </c>
-      <c r="H67" s="353"/>
-      <c r="I67" s="354" t="s">
+      <c r="H67" s="373"/>
+      <c r="I67" s="374" t="s">
         <v>338</v>
       </c>
-      <c r="J67" s="354"/>
+      <c r="J67" s="374"/>
       <c r="K67" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="L67" s="355" t="s">
+      <c r="L67" s="375" t="s">
         <v>340</v>
       </c>
-      <c r="M67" s="355"/>
-      <c r="N67" s="355" t="s">
+      <c r="M67" s="375"/>
+      <c r="N67" s="375" t="s">
         <v>341</v>
       </c>
-      <c r="O67" s="355"/>
+      <c r="O67" s="375"/>
       <c r="P67" s="188" t="s">
         <v>342</v>
       </c>
@@ -18165,72 +18335,72 @@
       <c r="AD67" s="287" t="s">
         <v>202</v>
       </c>
-      <c r="AE67" s="373"/>
+      <c r="AE67" s="329"/>
     </row>
     <row r="68" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A68" s="347">
+      <c r="A68" s="377">
         <v>1</v>
       </c>
-      <c r="B68" s="348" t="s">
+      <c r="B68" s="378" t="s">
         <v>349</v>
       </c>
-      <c r="C68" s="349" t="s">
+      <c r="C68" s="379" t="s">
         <v>350</v>
       </c>
-      <c r="D68" s="350" t="s">
+      <c r="D68" s="380" t="s">
         <v>351</v>
       </c>
-      <c r="E68" s="351">
+      <c r="E68" s="381">
         <f>SUM(F68:F69)</f>
         <v>179900000</v>
       </c>
       <c r="F68" s="288">
         <v>108900000</v>
       </c>
-      <c r="G68" s="343">
+      <c r="G68" s="388">
         <v>0.12</v>
       </c>
-      <c r="H68" s="343"/>
-      <c r="I68" s="344">
+      <c r="H68" s="388"/>
+      <c r="I68" s="389">
         <f>F68*G68</f>
         <v>13068000</v>
       </c>
-      <c r="J68" s="344"/>
-      <c r="K68" s="345">
+      <c r="J68" s="389"/>
+      <c r="K68" s="390">
         <f>SUM(I68:J70)</f>
         <v>20168000</v>
       </c>
-      <c r="L68" s="346">
+      <c r="L68" s="391">
         <v>107480000</v>
       </c>
-      <c r="M68" s="346"/>
-      <c r="N68" s="337">
+      <c r="M68" s="391"/>
+      <c r="N68" s="376">
         <v>10000000</v>
       </c>
-      <c r="O68" s="337"/>
-      <c r="P68" s="337">
+      <c r="O68" s="376"/>
+      <c r="P68" s="376">
         <v>94680</v>
       </c>
-      <c r="Q68" s="337">
-        <v>0</v>
-      </c>
-      <c r="R68" s="337">
-        <v>0</v>
-      </c>
-      <c r="S68" s="337">
-        <v>0</v>
-      </c>
-      <c r="T68" s="337">
+      <c r="Q68" s="376">
+        <v>0</v>
+      </c>
+      <c r="R68" s="376">
+        <v>0</v>
+      </c>
+      <c r="S68" s="376">
+        <v>0</v>
+      </c>
+      <c r="T68" s="376">
         <v>200000</v>
       </c>
-      <c r="U68" s="337">
-        <v>0</v>
-      </c>
-      <c r="V68" s="338">
+      <c r="U68" s="376">
+        <v>0</v>
+      </c>
+      <c r="V68" s="383">
         <f>SUM(L68:U69)</f>
         <v>117774680</v>
       </c>
-      <c r="W68" s="339">
+      <c r="W68" s="384">
         <f>E68-K68-V68</f>
         <v>41957320</v>
       </c>
@@ -18254,44 +18424,44 @@
         <f>SUM(IF(COUNTBLANK(X68),V68,0))</f>
         <v>0</v>
       </c>
-      <c r="AE68" s="374"/>
+      <c r="AE68" s="297"/>
     </row>
     <row r="69" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A69" s="347"/>
-      <c r="B69" s="348"/>
-      <c r="C69" s="348"/>
-      <c r="D69" s="350"/>
-      <c r="E69" s="351"/>
-      <c r="F69" s="340">
+      <c r="A69" s="377"/>
+      <c r="B69" s="378"/>
+      <c r="C69" s="378"/>
+      <c r="D69" s="380"/>
+      <c r="E69" s="381"/>
+      <c r="F69" s="385">
         <v>71000000</v>
       </c>
-      <c r="G69" s="341">
+      <c r="G69" s="386">
         <v>0.1</v>
       </c>
-      <c r="H69" s="341"/>
-      <c r="I69" s="342">
+      <c r="H69" s="386"/>
+      <c r="I69" s="387">
         <f>F69*G69</f>
         <v>7100000</v>
       </c>
-      <c r="J69" s="342"/>
-      <c r="K69" s="345"/>
-      <c r="L69" s="346"/>
-      <c r="M69" s="346"/>
-      <c r="N69" s="337"/>
-      <c r="O69" s="337"/>
-      <c r="P69" s="337"/>
-      <c r="Q69" s="337"/>
-      <c r="R69" s="337"/>
-      <c r="S69" s="337"/>
-      <c r="T69" s="337"/>
-      <c r="U69" s="337"/>
-      <c r="V69" s="338"/>
-      <c r="W69" s="339"/>
+      <c r="J69" s="387"/>
+      <c r="K69" s="390"/>
+      <c r="L69" s="391"/>
+      <c r="M69" s="391"/>
+      <c r="N69" s="376"/>
+      <c r="O69" s="376"/>
+      <c r="P69" s="376"/>
+      <c r="Q69" s="376"/>
+      <c r="R69" s="376"/>
+      <c r="S69" s="376"/>
+      <c r="T69" s="376"/>
+      <c r="U69" s="376"/>
+      <c r="V69" s="383"/>
+      <c r="W69" s="384"/>
       <c r="X69" s="218">
         <f>(W68-X68)-X70</f>
         <v>7587196</v>
       </c>
-      <c r="Y69" s="336">
+      <c r="Y69" s="382">
         <v>45657</v>
       </c>
       <c r="Z69" s="213"/>
@@ -18307,36 +18477,36 @@
         <f>SUM(IF(COUNTBLANK(X69),V68,0))</f>
         <v>0</v>
       </c>
-      <c r="AE69" s="374"/>
+      <c r="AE69" s="297"/>
     </row>
     <row r="70" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A70" s="347"/>
-      <c r="B70" s="348"/>
-      <c r="C70" s="348"/>
-      <c r="D70" s="350"/>
-      <c r="E70" s="351"/>
-      <c r="F70" s="340"/>
-      <c r="G70" s="341"/>
-      <c r="H70" s="341"/>
-      <c r="I70" s="342"/>
-      <c r="J70" s="342"/>
-      <c r="K70" s="345"/>
-      <c r="L70" s="346"/>
-      <c r="M70" s="346"/>
-      <c r="N70" s="337"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="337"/>
-      <c r="S70" s="337"/>
-      <c r="T70" s="337"/>
-      <c r="U70" s="337"/>
-      <c r="V70" s="338"/>
-      <c r="W70" s="339"/>
+      <c r="A70" s="377"/>
+      <c r="B70" s="378"/>
+      <c r="C70" s="378"/>
+      <c r="D70" s="380"/>
+      <c r="E70" s="381"/>
+      <c r="F70" s="385"/>
+      <c r="G70" s="386"/>
+      <c r="H70" s="386"/>
+      <c r="I70" s="387"/>
+      <c r="J70" s="387"/>
+      <c r="K70" s="390"/>
+      <c r="L70" s="391"/>
+      <c r="M70" s="391"/>
+      <c r="N70" s="376"/>
+      <c r="O70" s="376"/>
+      <c r="P70" s="376"/>
+      <c r="Q70" s="376"/>
+      <c r="R70" s="376"/>
+      <c r="S70" s="376"/>
+      <c r="T70" s="376"/>
+      <c r="U70" s="376"/>
+      <c r="V70" s="383"/>
+      <c r="W70" s="384"/>
       <c r="X70" s="292">
         <v>5000000</v>
       </c>
-      <c r="Y70" s="336"/>
+      <c r="Y70" s="382"/>
       <c r="Z70" s="278"/>
       <c r="AA70" s="278"/>
       <c r="AB70" s="292">
@@ -18351,7 +18521,7 @@
         <f>SUM(IF(COUNTBLANK(X70),V70,0))</f>
         <v>0</v>
       </c>
-      <c r="AE70" s="374"/>
+      <c r="AE70" s="297"/>
     </row>
     <row r="71" spans="1:31" s="222" customFormat="1" ht="24.75" customHeight="1">
       <c r="B71" s="295"/>
@@ -21225,75 +21395,40 @@
       </c>
       <c r="K160" s="316"/>
     </row>
+    <row r="161" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A161" s="313">
+        <v>46022</v>
+      </c>
+      <c r="B161" s="317" t="s">
+        <v>440</v>
+      </c>
+      <c r="C161" s="318" t="s">
+        <v>143</v>
+      </c>
+      <c r="D161" s="319">
+        <v>475300</v>
+      </c>
+      <c r="E161" s="319">
+        <f t="shared" ref="E161" si="21">D161*10%</f>
+        <v>47530</v>
+      </c>
+      <c r="F161" s="319">
+        <f t="shared" ref="F161" si="22">SUM(D161:E161)</f>
+        <v>522830</v>
+      </c>
+      <c r="G161" s="320"/>
+      <c r="H161" s="319"/>
+      <c r="I161" s="321">
+        <f t="shared" ref="I161" si="23">SUM(F161)-SUM(H161)</f>
+        <v>522830</v>
+      </c>
+      <c r="J161" s="310">
+        <v>46053</v>
+      </c>
+      <c r="K161" s="316"/>
+    </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:V25"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="R32:V32"/>
-    <mergeCell ref="R33:V33"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="R36:V36"/>
-    <mergeCell ref="R37:V37"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="R49:V49"/>
-    <mergeCell ref="R50:V50"/>
-    <mergeCell ref="R51:V51"/>
-    <mergeCell ref="R52:V52"/>
-    <mergeCell ref="R53:V53"/>
-    <mergeCell ref="R54:V54"/>
-    <mergeCell ref="R55:V55"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="R57:V57"/>
-    <mergeCell ref="R58:V58"/>
-    <mergeCell ref="R59:V59"/>
-    <mergeCell ref="R60:V60"/>
-    <mergeCell ref="R61:V61"/>
-    <mergeCell ref="R62:V62"/>
-    <mergeCell ref="R63:V63"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="L66:V66"/>
-    <mergeCell ref="W66:AB66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
     <mergeCell ref="Y69:Y70"/>
     <mergeCell ref="U68:U70"/>
     <mergeCell ref="V68:V70"/>
@@ -21310,79 +21445,151 @@
     <mergeCell ref="I68:J68"/>
     <mergeCell ref="K68:K70"/>
     <mergeCell ref="L68:M70"/>
+    <mergeCell ref="N68:O70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="W66:AB66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="R61:V61"/>
+    <mergeCell ref="R62:V62"/>
+    <mergeCell ref="R63:V63"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="L66:V66"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="R57:V57"/>
+    <mergeCell ref="R58:V58"/>
+    <mergeCell ref="R59:V59"/>
+    <mergeCell ref="R60:V60"/>
+    <mergeCell ref="R51:V51"/>
+    <mergeCell ref="R52:V52"/>
+    <mergeCell ref="R53:V53"/>
+    <mergeCell ref="R54:V54"/>
+    <mergeCell ref="R55:V55"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="R49:V49"/>
+    <mergeCell ref="R50:V50"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="R36:V36"/>
+    <mergeCell ref="R37:V37"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="R33:V33"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:V25"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="W3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B26:D46">
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$J26&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$O26&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:D63">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$J63&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$O63&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:F68 F69">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>$AC68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:H160">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="G75:H161">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J28 O26:O28">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29 O29">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J62 O30:O62">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63 O63">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P62">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:Q62">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q63">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB68:AE71">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G161:H161">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
